--- a/combined_ipc_codes.xlsx
+++ b/combined_ipc_codes.xlsx
@@ -19,379 +19,379 @@
     <t>IPC_Codes</t>
   </si>
   <si>
-    <t>C10L 5/00</t>
-  </si>
-  <si>
-    <t>C10L 5/40</t>
-  </si>
-  <si>
-    <t>C10L 5/41</t>
-  </si>
-  <si>
-    <t>C10L 5/42</t>
-  </si>
-  <si>
-    <t>C10L 5/43</t>
-  </si>
-  <si>
-    <t>C10L 5/44</t>
-  </si>
-  <si>
-    <t>C10L 5/45</t>
-  </si>
-  <si>
-    <t>C10L 5/46</t>
-  </si>
-  <si>
-    <t>C10L 5/47</t>
-  </si>
-  <si>
-    <t>C10L 5/48</t>
-  </si>
-  <si>
-    <t>C10B 53/02</t>
-  </si>
-  <si>
-    <t>C10L 9/00</t>
-  </si>
-  <si>
-    <t>C10L 1/00</t>
-  </si>
-  <si>
-    <t>C10L 1/02</t>
-  </si>
-  <si>
-    <t>C10L 1/14</t>
-  </si>
-  <si>
-    <t>C10L 1/19</t>
-  </si>
-  <si>
-    <t>C07C 67/00</t>
-  </si>
-  <si>
-    <t>C07C 69/00</t>
+    <t>C10L5/00</t>
+  </si>
+  <si>
+    <t>C10L5/40</t>
+  </si>
+  <si>
+    <t>C10L5/41</t>
+  </si>
+  <si>
+    <t>C10L5/42</t>
+  </si>
+  <si>
+    <t>C10L5/43</t>
+  </si>
+  <si>
+    <t>C10L5/44</t>
+  </si>
+  <si>
+    <t>C10L5/45</t>
+  </si>
+  <si>
+    <t>C10L5/46</t>
+  </si>
+  <si>
+    <t>C10L5/47</t>
+  </si>
+  <si>
+    <t>C10L5/48</t>
+  </si>
+  <si>
+    <t>C10B53/02</t>
+  </si>
+  <si>
+    <t>C10L9/00</t>
+  </si>
+  <si>
+    <t>C10L1/00</t>
+  </si>
+  <si>
+    <t>C10L1/02</t>
+  </si>
+  <si>
+    <t>C10L1/14</t>
+  </si>
+  <si>
+    <t>C10L1/19</t>
+  </si>
+  <si>
+    <t>C07C67/00</t>
+  </si>
+  <si>
+    <t>C07C69/00</t>
   </si>
   <si>
     <t>C10G</t>
   </si>
   <si>
-    <t>C11C 3/10</t>
-  </si>
-  <si>
-    <t>C12P 7/64</t>
-  </si>
-  <si>
-    <t>C10L 1/182</t>
-  </si>
-  <si>
-    <t>C12N 9/24</t>
-  </si>
-  <si>
-    <t>C12P 7/06</t>
-  </si>
-  <si>
-    <t>C12P 7/07</t>
-  </si>
-  <si>
-    <t>C12P 7/08</t>
-  </si>
-  <si>
-    <t>C12P 7/09</t>
-  </si>
-  <si>
-    <t>C12P 7/10</t>
-  </si>
-  <si>
-    <t>C12P 7/11</t>
-  </si>
-  <si>
-    <t>C12P 7/12</t>
-  </si>
-  <si>
-    <t>C12P 7/13</t>
-  </si>
-  <si>
-    <t>C12P 7/14</t>
-  </si>
-  <si>
-    <t>C02F 3/28</t>
-  </si>
-  <si>
-    <t>C02F 11/04</t>
-  </si>
-  <si>
-    <t>C10L 3/00</t>
-  </si>
-  <si>
-    <t>C12M 1/107</t>
-  </si>
-  <si>
-    <t>C12P 5/02</t>
-  </si>
-  <si>
-    <t>C12N 1/13</t>
-  </si>
-  <si>
-    <t>C12N 1/15</t>
-  </si>
-  <si>
-    <t>C12N 1/21</t>
-  </si>
-  <si>
-    <t>C12N 5/10</t>
-  </si>
-  <si>
-    <t>C12N 15/00</t>
+    <t>C11C3/10</t>
+  </si>
+  <si>
+    <t>C12P7/64</t>
+  </si>
+  <si>
+    <t>C10L1/182</t>
+  </si>
+  <si>
+    <t>C12N9/24</t>
+  </si>
+  <si>
+    <t>C12P7/06</t>
+  </si>
+  <si>
+    <t>C12P7/07</t>
+  </si>
+  <si>
+    <t>C12P7/08</t>
+  </si>
+  <si>
+    <t>C12P7/09</t>
+  </si>
+  <si>
+    <t>C12P7/10</t>
+  </si>
+  <si>
+    <t>C12P7/11</t>
+  </si>
+  <si>
+    <t>C12P7/12</t>
+  </si>
+  <si>
+    <t>C12P7/13</t>
+  </si>
+  <si>
+    <t>C12P7/14</t>
+  </si>
+  <si>
+    <t>C02F3/28</t>
+  </si>
+  <si>
+    <t>C02F11/04</t>
+  </si>
+  <si>
+    <t>C10L3/00</t>
+  </si>
+  <si>
+    <t>C12M1/107</t>
+  </si>
+  <si>
+    <t>C12P5/02</t>
+  </si>
+  <si>
+    <t>C12N1/13</t>
+  </si>
+  <si>
+    <t>C12N1/15</t>
+  </si>
+  <si>
+    <t>C12N1/21</t>
+  </si>
+  <si>
+    <t>C12N5/10</t>
+  </si>
+  <si>
+    <t>C12N15/00</t>
   </si>
   <si>
     <t>A01H</t>
   </si>
   <si>
-    <t>F02C 3/28</t>
-  </si>
-  <si>
-    <t>H01M 4/86</t>
-  </si>
-  <si>
-    <t>H01M 4/87</t>
-  </si>
-  <si>
-    <t>H01M 4/88</t>
-  </si>
-  <si>
-    <t>H01M 4/89</t>
-  </si>
-  <si>
-    <t>H01M 4/90</t>
-  </si>
-  <si>
-    <t>H01M 4/91</t>
-  </si>
-  <si>
-    <t>H01M 4/92</t>
-  </si>
-  <si>
-    <t>H01M 4/93</t>
-  </si>
-  <si>
-    <t>H01M 4/94</t>
-  </si>
-  <si>
-    <t>H01M 4/95</t>
-  </si>
-  <si>
-    <t>H01M 4/96</t>
-  </si>
-  <si>
-    <t>H01M 4/97</t>
-  </si>
-  <si>
-    <t>H01M 4/98</t>
-  </si>
-  <si>
-    <t>H01M 8/00</t>
-  </si>
-  <si>
-    <t>H01M 8/01</t>
-  </si>
-  <si>
-    <t>H01M 8/02</t>
-  </si>
-  <si>
-    <t>H01M 8/03</t>
-  </si>
-  <si>
-    <t>H01M 8/04</t>
-  </si>
-  <si>
-    <t>H01M 8/05</t>
-  </si>
-  <si>
-    <t>H01M 8/06</t>
-  </si>
-  <si>
-    <t>H01M 8/07</t>
-  </si>
-  <si>
-    <t>H01M 8/08</t>
-  </si>
-  <si>
-    <t>H01M 8/09</t>
-  </si>
-  <si>
-    <t>H01M 8/10</t>
-  </si>
-  <si>
-    <t>H01M 8/11</t>
-  </si>
-  <si>
-    <t>H01M 8/12</t>
-  </si>
-  <si>
-    <t>H01M 8/13</t>
-  </si>
-  <si>
-    <t>H01M 8/14</t>
-  </si>
-  <si>
-    <t>H01M 8/15</t>
-  </si>
-  <si>
-    <t>H01M 8/16</t>
-  </si>
-  <si>
-    <t>H01M 8/17</t>
-  </si>
-  <si>
-    <t>H01M 8/18</t>
-  </si>
-  <si>
-    <t>H01M 8/19</t>
-  </si>
-  <si>
-    <t>H01M 8/20</t>
-  </si>
-  <si>
-    <t>H01M 8/21</t>
-  </si>
-  <si>
-    <t>H01M 8/22</t>
-  </si>
-  <si>
-    <t>H01M 8/23</t>
-  </si>
-  <si>
-    <t>H01M 8/24</t>
-  </si>
-  <si>
-    <t>H01M 12/00</t>
-  </si>
-  <si>
-    <t>H01M 12/01</t>
-  </si>
-  <si>
-    <t>H01M 12/02</t>
-  </si>
-  <si>
-    <t>H01M 12/03</t>
-  </si>
-  <si>
-    <t>H01M 12/04</t>
-  </si>
-  <si>
-    <t>H01M 12/05</t>
-  </si>
-  <si>
-    <t>H01M 12/06</t>
-  </si>
-  <si>
-    <t>H01M 12/07</t>
-  </si>
-  <si>
-    <t>H01M 12/08</t>
-  </si>
-  <si>
-    <t>H01M 2/00</t>
-  </si>
-  <si>
-    <t>H01M 2/01</t>
-  </si>
-  <si>
-    <t>H01M 2/02</t>
-  </si>
-  <si>
-    <t>H01M 2/03</t>
-  </si>
-  <si>
-    <t>H01M 2/04</t>
-  </si>
-  <si>
-    <t>C10B 53/00</t>
+    <t>F02C3/28</t>
+  </si>
+  <si>
+    <t>H01M4/86</t>
+  </si>
+  <si>
+    <t>H01M4/87</t>
+  </si>
+  <si>
+    <t>H01M4/88</t>
+  </si>
+  <si>
+    <t>H01M4/89</t>
+  </si>
+  <si>
+    <t>H01M4/90</t>
+  </si>
+  <si>
+    <t>H01M4/91</t>
+  </si>
+  <si>
+    <t>H01M4/92</t>
+  </si>
+  <si>
+    <t>H01M4/93</t>
+  </si>
+  <si>
+    <t>H01M4/94</t>
+  </si>
+  <si>
+    <t>H01M4/95</t>
+  </si>
+  <si>
+    <t>H01M4/96</t>
+  </si>
+  <si>
+    <t>H01M4/97</t>
+  </si>
+  <si>
+    <t>H01M4/98</t>
+  </si>
+  <si>
+    <t>H01M8/00</t>
+  </si>
+  <si>
+    <t>H01M8/01</t>
+  </si>
+  <si>
+    <t>H01M8/02</t>
+  </si>
+  <si>
+    <t>H01M8/03</t>
+  </si>
+  <si>
+    <t>H01M8/04</t>
+  </si>
+  <si>
+    <t>H01M8/05</t>
+  </si>
+  <si>
+    <t>H01M8/06</t>
+  </si>
+  <si>
+    <t>H01M8/07</t>
+  </si>
+  <si>
+    <t>H01M8/08</t>
+  </si>
+  <si>
+    <t>H01M8/09</t>
+  </si>
+  <si>
+    <t>H01M8/10</t>
+  </si>
+  <si>
+    <t>H01M8/11</t>
+  </si>
+  <si>
+    <t>H01M8/12</t>
+  </si>
+  <si>
+    <t>H01M8/13</t>
+  </si>
+  <si>
+    <t>H01M8/14</t>
+  </si>
+  <si>
+    <t>H01M8/15</t>
+  </si>
+  <si>
+    <t>H01M8/16</t>
+  </si>
+  <si>
+    <t>H01M8/17</t>
+  </si>
+  <si>
+    <t>H01M8/18</t>
+  </si>
+  <si>
+    <t>H01M8/19</t>
+  </si>
+  <si>
+    <t>H01M8/20</t>
+  </si>
+  <si>
+    <t>H01M8/21</t>
+  </si>
+  <si>
+    <t>H01M8/22</t>
+  </si>
+  <si>
+    <t>H01M8/23</t>
+  </si>
+  <si>
+    <t>H01M8/24</t>
+  </si>
+  <si>
+    <t>H01M12/00</t>
+  </si>
+  <si>
+    <t>H01M12/01</t>
+  </si>
+  <si>
+    <t>H01M12/02</t>
+  </si>
+  <si>
+    <t>H01M12/03</t>
+  </si>
+  <si>
+    <t>H01M12/04</t>
+  </si>
+  <si>
+    <t>H01M12/05</t>
+  </si>
+  <si>
+    <t>H01M12/06</t>
+  </si>
+  <si>
+    <t>H01M12/07</t>
+  </si>
+  <si>
+    <t>H01M12/08</t>
+  </si>
+  <si>
+    <t>H01M2/00</t>
+  </si>
+  <si>
+    <t>H01M2/01</t>
+  </si>
+  <si>
+    <t>H01M2/02</t>
+  </si>
+  <si>
+    <t>H01M2/03</t>
+  </si>
+  <si>
+    <t>H01M2/04</t>
+  </si>
+  <si>
+    <t>C10B53/00</t>
   </si>
   <si>
     <t>C10J</t>
   </si>
   <si>
-    <t>F23G 7/00</t>
-  </si>
-  <si>
-    <t>F23G 7/10</t>
-  </si>
-  <si>
-    <t>C10J 3/02</t>
-  </si>
-  <si>
-    <t>C10J 3/46</t>
-  </si>
-  <si>
-    <t>F23B 90/00</t>
-  </si>
-  <si>
-    <t>F23G 5/027</t>
-  </si>
-  <si>
-    <t>B09B 3/00</t>
-  </si>
-  <si>
-    <t>F23G 5/00</t>
-  </si>
-  <si>
-    <t>C21B 5/06</t>
-  </si>
-  <si>
-    <t>D21C 11/00</t>
-  </si>
-  <si>
-    <t>A62D 3/02</t>
-  </si>
-  <si>
-    <t>C02F 11/14</t>
+    <t>F23G7/00</t>
+  </si>
+  <si>
+    <t>F23G7/10</t>
+  </si>
+  <si>
+    <t>C10J3/02</t>
+  </si>
+  <si>
+    <t>C10J3/46</t>
+  </si>
+  <si>
+    <t>F23B90/00</t>
+  </si>
+  <si>
+    <t>F23G5/027</t>
+  </si>
+  <si>
+    <t>B09B3/00</t>
+  </si>
+  <si>
+    <t>F23G5/00</t>
+  </si>
+  <si>
+    <t>C21B5/06</t>
+  </si>
+  <si>
+    <t>D21C11/00</t>
+  </si>
+  <si>
+    <t>A62D3/02</t>
+  </si>
+  <si>
+    <t>C02F11/14</t>
   </si>
   <si>
     <t>B09B</t>
   </si>
   <si>
-    <t>B01D 53/02</t>
-  </si>
-  <si>
-    <t>B01D 53/04</t>
-  </si>
-  <si>
-    <t>B01D 53/047</t>
-  </si>
-  <si>
-    <t>B01D 53/14</t>
-  </si>
-  <si>
-    <t>B01D 53/22</t>
-  </si>
-  <si>
-    <t>B01D 53/24</t>
-  </si>
-  <si>
-    <t>E02B 9/00</t>
-  </si>
-  <si>
-    <t>E02B 9/01</t>
-  </si>
-  <si>
-    <t>E02B 9/02</t>
-  </si>
-  <si>
-    <t>E02B 9/03</t>
-  </si>
-  <si>
-    <t>E02B 9/04</t>
-  </si>
-  <si>
-    <t>E02B 9/05</t>
-  </si>
-  <si>
-    <t>E02B 9/06</t>
-  </si>
-  <si>
-    <t>E02B 9/08</t>
+    <t>B01D53/02</t>
+  </si>
+  <si>
+    <t>B01D53/04</t>
+  </si>
+  <si>
+    <t>B01D53/047</t>
+  </si>
+  <si>
+    <t>B01D53/14</t>
+  </si>
+  <si>
+    <t>B01D53/22</t>
+  </si>
+  <si>
+    <t>B01D53/24</t>
+  </si>
+  <si>
+    <t>E02B9/00</t>
+  </si>
+  <si>
+    <t>E02B9/01</t>
+  </si>
+  <si>
+    <t>E02B9/02</t>
+  </si>
+  <si>
+    <t>E02B9/03</t>
+  </si>
+  <si>
+    <t>E02B9/04</t>
+  </si>
+  <si>
+    <t>E02B9/05</t>
+  </si>
+  <si>
+    <t>E02B9/06</t>
+  </si>
+  <si>
+    <t>E02B9/08</t>
   </si>
   <si>
     <t>F03B</t>
@@ -400,2476 +400,2476 @@
     <t>F03C</t>
   </si>
   <si>
-    <t>F03B 13/12</t>
-  </si>
-  <si>
-    <t>F03B 13/13</t>
-  </si>
-  <si>
-    <t>F03B 13/14</t>
-  </si>
-  <si>
-    <t>F03B 13/15</t>
-  </si>
-  <si>
-    <t>F03B 13/16</t>
-  </si>
-  <si>
-    <t>F03B 13/17</t>
-  </si>
-  <si>
-    <t>F03B 13/18</t>
-  </si>
-  <si>
-    <t>F03B 13/19</t>
-  </si>
-  <si>
-    <t>F03B 13/20</t>
-  </si>
-  <si>
-    <t>F03B 13/21</t>
-  </si>
-  <si>
-    <t>F03B 13/22</t>
-  </si>
-  <si>
-    <t>F03B 13/23</t>
-  </si>
-  <si>
-    <t>F03B 13/24</t>
-  </si>
-  <si>
-    <t>F03B 13/25</t>
-  </si>
-  <si>
-    <t>F03B 13/26</t>
-  </si>
-  <si>
-    <t>F03B 15/00</t>
-  </si>
-  <si>
-    <t>F03B 15/01</t>
-  </si>
-  <si>
-    <t>F03B 15/02</t>
-  </si>
-  <si>
-    <t>F03B 15/03</t>
-  </si>
-  <si>
-    <t>F03B 15/04</t>
-  </si>
-  <si>
-    <t>F03B 15/05</t>
-  </si>
-  <si>
-    <t>F03B 15/06</t>
-  </si>
-  <si>
-    <t>F03B 15/07</t>
-  </si>
-  <si>
-    <t>F03B 15/08</t>
-  </si>
-  <si>
-    <t>F03B 15/09</t>
-  </si>
-  <si>
-    <t>F03B 15/10</t>
-  </si>
-  <si>
-    <t>F03B 15/11</t>
-  </si>
-  <si>
-    <t>F03B 15/12</t>
-  </si>
-  <si>
-    <t>F03B 15/13</t>
-  </si>
-  <si>
-    <t>F03B 15/14</t>
-  </si>
-  <si>
-    <t>F03B 15/15</t>
-  </si>
-  <si>
-    <t>F03B 15/16</t>
-  </si>
-  <si>
-    <t>F03B 15/17</t>
-  </si>
-  <si>
-    <t>F03B 15/18</t>
-  </si>
-  <si>
-    <t>F03B 15/19</t>
-  </si>
-  <si>
-    <t>F03B 15/20</t>
-  </si>
-  <si>
-    <t>F03B 15/21</t>
-  </si>
-  <si>
-    <t>F03B 15/22</t>
-  </si>
-  <si>
-    <t>B63H 19/02</t>
-  </si>
-  <si>
-    <t>B63H 19/04</t>
-  </si>
-  <si>
-    <t>F03G 7/05</t>
+    <t>F03B13/12</t>
+  </si>
+  <si>
+    <t>F03B13/13</t>
+  </si>
+  <si>
+    <t>F03B13/14</t>
+  </si>
+  <si>
+    <t>F03B13/15</t>
+  </si>
+  <si>
+    <t>F03B13/16</t>
+  </si>
+  <si>
+    <t>F03B13/17</t>
+  </si>
+  <si>
+    <t>F03B13/18</t>
+  </si>
+  <si>
+    <t>F03B13/19</t>
+  </si>
+  <si>
+    <t>F03B13/20</t>
+  </si>
+  <si>
+    <t>F03B13/21</t>
+  </si>
+  <si>
+    <t>F03B13/22</t>
+  </si>
+  <si>
+    <t>F03B13/23</t>
+  </si>
+  <si>
+    <t>F03B13/24</t>
+  </si>
+  <si>
+    <t>F03B13/25</t>
+  </si>
+  <si>
+    <t>F03B13/26</t>
+  </si>
+  <si>
+    <t>F03B15/00</t>
+  </si>
+  <si>
+    <t>F03B15/01</t>
+  </si>
+  <si>
+    <t>F03B15/02</t>
+  </si>
+  <si>
+    <t>F03B15/03</t>
+  </si>
+  <si>
+    <t>F03B15/04</t>
+  </si>
+  <si>
+    <t>F03B15/05</t>
+  </si>
+  <si>
+    <t>F03B15/06</t>
+  </si>
+  <si>
+    <t>F03B15/07</t>
+  </si>
+  <si>
+    <t>F03B15/08</t>
+  </si>
+  <si>
+    <t>F03B15/09</t>
+  </si>
+  <si>
+    <t>F03B15/10</t>
+  </si>
+  <si>
+    <t>F03B15/11</t>
+  </si>
+  <si>
+    <t>F03B15/12</t>
+  </si>
+  <si>
+    <t>F03B15/13</t>
+  </si>
+  <si>
+    <t>F03B15/14</t>
+  </si>
+  <si>
+    <t>F03B15/15</t>
+  </si>
+  <si>
+    <t>F03B15/16</t>
+  </si>
+  <si>
+    <t>F03B15/17</t>
+  </si>
+  <si>
+    <t>F03B15/18</t>
+  </si>
+  <si>
+    <t>F03B15/19</t>
+  </si>
+  <si>
+    <t>F03B15/20</t>
+  </si>
+  <si>
+    <t>F03B15/21</t>
+  </si>
+  <si>
+    <t>F03B15/22</t>
+  </si>
+  <si>
+    <t>B63H19/02</t>
+  </si>
+  <si>
+    <t>B63H19/04</t>
+  </si>
+  <si>
+    <t>F03G7/05</t>
   </si>
   <si>
     <t>F03D</t>
   </si>
   <si>
-    <t>H02K 7/18</t>
-  </si>
-  <si>
-    <t>B63B 35/00</t>
-  </si>
-  <si>
-    <t>E04H 12/00</t>
-  </si>
-  <si>
-    <t>F03D 11/04</t>
-  </si>
-  <si>
-    <t>B60K 16/00</t>
-  </si>
-  <si>
-    <t>B60L 8/00</t>
-  </si>
-  <si>
-    <t>B63H 13/00</t>
-  </si>
-  <si>
-    <t>H01L 27/142</t>
-  </si>
-  <si>
-    <t>H01L 31/00</t>
-  </si>
-  <si>
-    <t>H01L 31/01</t>
-  </si>
-  <si>
-    <t>H01L 31/02</t>
-  </si>
-  <si>
-    <t>H01L 31/03</t>
-  </si>
-  <si>
-    <t>H01L 31/04</t>
-  </si>
-  <si>
-    <t>H01L 31/05</t>
-  </si>
-  <si>
-    <t>H01L 31/06</t>
-  </si>
-  <si>
-    <t>H01L 31/07</t>
-  </si>
-  <si>
-    <t>H01L 31/08</t>
-  </si>
-  <si>
-    <t>H01L 31/09</t>
-  </si>
-  <si>
-    <t>H01L 31/10</t>
-  </si>
-  <si>
-    <t>H01L 31/11</t>
-  </si>
-  <si>
-    <t>H01L 31/12</t>
-  </si>
-  <si>
-    <t>H01L 31/13</t>
-  </si>
-  <si>
-    <t>H01L 31/14</t>
-  </si>
-  <si>
-    <t>H01L 31/15</t>
-  </si>
-  <si>
-    <t>H01L 31/16</t>
-  </si>
-  <si>
-    <t>H01L 31/17</t>
-  </si>
-  <si>
-    <t>H01L 31/18</t>
-  </si>
-  <si>
-    <t>H01L 31/19</t>
-  </si>
-  <si>
-    <t>H01L 31/20</t>
-  </si>
-  <si>
-    <t>H01L 31/21</t>
-  </si>
-  <si>
-    <t>H01L 31/22</t>
-  </si>
-  <si>
-    <t>H01L 31/23</t>
-  </si>
-  <si>
-    <t>H01L 31/24</t>
-  </si>
-  <si>
-    <t>H01L 31/25</t>
-  </si>
-  <si>
-    <t>H01L 31/26</t>
-  </si>
-  <si>
-    <t>H01L 31/27</t>
-  </si>
-  <si>
-    <t>H01L 31/28</t>
-  </si>
-  <si>
-    <t>H01L 31/29</t>
-  </si>
-  <si>
-    <t>H01L 31/30</t>
-  </si>
-  <si>
-    <t>H01L 31/31</t>
-  </si>
-  <si>
-    <t>H01L 31/32</t>
-  </si>
-  <si>
-    <t>H01L 31/33</t>
-  </si>
-  <si>
-    <t>H01L 31/34</t>
-  </si>
-  <si>
-    <t>H01L 31/35</t>
-  </si>
-  <si>
-    <t>H01L 31/36</t>
-  </si>
-  <si>
-    <t>H01L 31/37</t>
-  </si>
-  <si>
-    <t>H01L 31/38</t>
-  </si>
-  <si>
-    <t>H01L 31/39</t>
-  </si>
-  <si>
-    <t>H01L 31/40</t>
-  </si>
-  <si>
-    <t>H01L 31/41</t>
-  </si>
-  <si>
-    <t>H01L 31/42</t>
-  </si>
-  <si>
-    <t>H01L 31/43</t>
-  </si>
-  <si>
-    <t>H01L 31/44</t>
-  </si>
-  <si>
-    <t>H01L 31/45</t>
-  </si>
-  <si>
-    <t>H01L 31/46</t>
-  </si>
-  <si>
-    <t>H01L 31/47</t>
-  </si>
-  <si>
-    <t>H01L 31/48</t>
-  </si>
-  <si>
-    <t>H01L 31/49</t>
-  </si>
-  <si>
-    <t>H01L 31/50</t>
-  </si>
-  <si>
-    <t>H01L 31/51</t>
-  </si>
-  <si>
-    <t>H01L 31/52</t>
-  </si>
-  <si>
-    <t>H01L 31/53</t>
-  </si>
-  <si>
-    <t>H01L 31/54</t>
-  </si>
-  <si>
-    <t>H01L 31/55</t>
-  </si>
-  <si>
-    <t>H01L 31/56</t>
-  </si>
-  <si>
-    <t>H01L 31/57</t>
-  </si>
-  <si>
-    <t>H01L 31/58</t>
-  </si>
-  <si>
-    <t>H01L 31/59</t>
-  </si>
-  <si>
-    <t>H01L 31/60</t>
-  </si>
-  <si>
-    <t>H01L 31/61</t>
-  </si>
-  <si>
-    <t>H01L 31/62</t>
-  </si>
-  <si>
-    <t>H01L 31/63</t>
-  </si>
-  <si>
-    <t>H01L 31/64</t>
-  </si>
-  <si>
-    <t>H01L 31/65</t>
-  </si>
-  <si>
-    <t>H01L 31/66</t>
-  </si>
-  <si>
-    <t>H01L 31/67</t>
-  </si>
-  <si>
-    <t>H01L 31/68</t>
-  </si>
-  <si>
-    <t>H01L 31/69</t>
-  </si>
-  <si>
-    <t>H01L 31/70</t>
-  </si>
-  <si>
-    <t>H01L 31/71</t>
-  </si>
-  <si>
-    <t>H01L 31/72</t>
-  </si>
-  <si>
-    <t>H01L 31/73</t>
-  </si>
-  <si>
-    <t>H01L 31/74</t>
-  </si>
-  <si>
-    <t>H01L 31/75</t>
-  </si>
-  <si>
-    <t>H01L 31/76</t>
-  </si>
-  <si>
-    <t>H01L 31/77</t>
-  </si>
-  <si>
-    <t>H01L 31/78</t>
-  </si>
-  <si>
-    <t>H01G 9/20</t>
-  </si>
-  <si>
-    <t>H02N 6/00</t>
-  </si>
-  <si>
-    <t>H01L 27/30</t>
-  </si>
-  <si>
-    <t>H01L 51/42</t>
-  </si>
-  <si>
-    <t>H01L 51/43</t>
-  </si>
-  <si>
-    <t>H01L 51/44</t>
-  </si>
-  <si>
-    <t>H01L 51/45</t>
-  </si>
-  <si>
-    <t>H01L 51/46</t>
-  </si>
-  <si>
-    <t>H01L 51/47</t>
-  </si>
-  <si>
-    <t>H01L 51/48</t>
-  </si>
-  <si>
-    <t>H01L 25/00</t>
-  </si>
-  <si>
-    <t>H01L 25/03</t>
-  </si>
-  <si>
-    <t>H01L 25/16</t>
-  </si>
-  <si>
-    <t>H01L 25/18</t>
-  </si>
-  <si>
-    <t>H01L 31/042</t>
-  </si>
-  <si>
-    <t>C01B 33/02</t>
-  </si>
-  <si>
-    <t>C23C 14/14</t>
-  </si>
-  <si>
-    <t>C23C 16/24</t>
-  </si>
-  <si>
-    <t>C30B 29/06</t>
-  </si>
-  <si>
-    <t>G05F 1/67</t>
-  </si>
-  <si>
-    <t>F21L 4/00</t>
-  </si>
-  <si>
-    <t>F21S 9/03</t>
-  </si>
-  <si>
-    <t>H02J 7/35</t>
-  </si>
-  <si>
-    <t>H01M 14/00</t>
-  </si>
-  <si>
-    <t>F24J 2/00</t>
-  </si>
-  <si>
-    <t>F24J 2/01</t>
-  </si>
-  <si>
-    <t>F24J 2/02</t>
-  </si>
-  <si>
-    <t>F24J 2/03</t>
-  </si>
-  <si>
-    <t>F24J 2/04</t>
-  </si>
-  <si>
-    <t>F24J 2/05</t>
-  </si>
-  <si>
-    <t>F24J 2/06</t>
-  </si>
-  <si>
-    <t>F24J 2/07</t>
-  </si>
-  <si>
-    <t>F24J 2/08</t>
-  </si>
-  <si>
-    <t>F24J 2/09</t>
-  </si>
-  <si>
-    <t>F24J 2/10</t>
-  </si>
-  <si>
-    <t>F24J 2/11</t>
-  </si>
-  <si>
-    <t>F24J 2/12</t>
-  </si>
-  <si>
-    <t>F24J 2/13</t>
-  </si>
-  <si>
-    <t>F24J 2/14</t>
-  </si>
-  <si>
-    <t>F24J 2/15</t>
-  </si>
-  <si>
-    <t>F24J 2/16</t>
-  </si>
-  <si>
-    <t>F24J 2/17</t>
-  </si>
-  <si>
-    <t>F24J 2/18</t>
-  </si>
-  <si>
-    <t>F24J 2/19</t>
-  </si>
-  <si>
-    <t>F24J 2/20</t>
-  </si>
-  <si>
-    <t>F24J 2/21</t>
-  </si>
-  <si>
-    <t>F24J 2/22</t>
-  </si>
-  <si>
-    <t>F24J 2/23</t>
-  </si>
-  <si>
-    <t>F24J 2/24</t>
-  </si>
-  <si>
-    <t>F24J 2/25</t>
-  </si>
-  <si>
-    <t>F24J 2/26</t>
-  </si>
-  <si>
-    <t>F24J 2/27</t>
-  </si>
-  <si>
-    <t>F24J 2/28</t>
-  </si>
-  <si>
-    <t>F24J 2/29</t>
-  </si>
-  <si>
-    <t>F24J 2/30</t>
-  </si>
-  <si>
-    <t>F24J 2/31</t>
-  </si>
-  <si>
-    <t>F24J 2/32</t>
-  </si>
-  <si>
-    <t>F24J 2/33</t>
-  </si>
-  <si>
-    <t>F24J 2/34</t>
-  </si>
-  <si>
-    <t>F24J 2/35</t>
-  </si>
-  <si>
-    <t>F24J 2/36</t>
-  </si>
-  <si>
-    <t>F24J 2/37</t>
-  </si>
-  <si>
-    <t>F24J 2/38</t>
-  </si>
-  <si>
-    <t>F24J 2/39</t>
-  </si>
-  <si>
-    <t>F24J 2/40</t>
-  </si>
-  <si>
-    <t>F24J 2/41</t>
-  </si>
-  <si>
-    <t>F24J 2/42</t>
-  </si>
-  <si>
-    <t>F24J 2/43</t>
-  </si>
-  <si>
-    <t>F24J 2/44</t>
-  </si>
-  <si>
-    <t>F24J 2/45</t>
-  </si>
-  <si>
-    <t>F24J 2/46</t>
-  </si>
-  <si>
-    <t>F24J 2/47</t>
-  </si>
-  <si>
-    <t>F24J 2/48</t>
-  </si>
-  <si>
-    <t>F24J 2/49</t>
-  </si>
-  <si>
-    <t>F24J 2/50</t>
-  </si>
-  <si>
-    <t>F24J 2/51</t>
-  </si>
-  <si>
-    <t>F24J 2/52</t>
-  </si>
-  <si>
-    <t>F24J 2/53</t>
-  </si>
-  <si>
-    <t>F24J 2/54</t>
-  </si>
-  <si>
-    <t>F24D 17/00</t>
-  </si>
-  <si>
-    <t>F24D 3/00</t>
-  </si>
-  <si>
-    <t>F24D 5/00</t>
-  </si>
-  <si>
-    <t>F24D 11/00</t>
-  </si>
-  <si>
-    <t>F24D 19/00</t>
-  </si>
-  <si>
-    <t>F03D 1/04</t>
-  </si>
-  <si>
-    <t>F03D 9/00</t>
-  </si>
-  <si>
-    <t>F03G 6/00</t>
-  </si>
-  <si>
-    <t>C02F 1/14</t>
-  </si>
-  <si>
-    <t>F02C 1/05</t>
-  </si>
-  <si>
-    <t>H01L 31/058</t>
-  </si>
-  <si>
-    <t>F03G 6/01</t>
-  </si>
-  <si>
-    <t>F03G 6/02</t>
-  </si>
-  <si>
-    <t>F03G 6/03</t>
-  </si>
-  <si>
-    <t>F03G 6/04</t>
-  </si>
-  <si>
-    <t>F03G 6/05</t>
-  </si>
-  <si>
-    <t>F03G 6/06</t>
-  </si>
-  <si>
-    <t>E04D 13/00</t>
-  </si>
-  <si>
-    <t>E04D 13/18</t>
-  </si>
-  <si>
-    <t>F22B 1/00</t>
-  </si>
-  <si>
-    <t>F24J 1/00</t>
-  </si>
-  <si>
-    <t>F25B 27/00</t>
-  </si>
-  <si>
-    <t>F26B 3/00</t>
-  </si>
-  <si>
-    <t>F26B 3/28</t>
-  </si>
-  <si>
-    <t>G02B 7/183</t>
+    <t>H02K7/18</t>
+  </si>
+  <si>
+    <t>B63B35/00</t>
+  </si>
+  <si>
+    <t>E04H12/00</t>
+  </si>
+  <si>
+    <t>F03D11/04</t>
+  </si>
+  <si>
+    <t>B60K16/00</t>
+  </si>
+  <si>
+    <t>B60L8/00</t>
+  </si>
+  <si>
+    <t>B63H13/00</t>
+  </si>
+  <si>
+    <t>H01L27/142</t>
+  </si>
+  <si>
+    <t>H01L31/00</t>
+  </si>
+  <si>
+    <t>H01L31/01</t>
+  </si>
+  <si>
+    <t>H01L31/02</t>
+  </si>
+  <si>
+    <t>H01L31/03</t>
+  </si>
+  <si>
+    <t>H01L31/04</t>
+  </si>
+  <si>
+    <t>H01L31/05</t>
+  </si>
+  <si>
+    <t>H01L31/06</t>
+  </si>
+  <si>
+    <t>H01L31/07</t>
+  </si>
+  <si>
+    <t>H01L31/08</t>
+  </si>
+  <si>
+    <t>H01L31/09</t>
+  </si>
+  <si>
+    <t>H01L31/10</t>
+  </si>
+  <si>
+    <t>H01L31/11</t>
+  </si>
+  <si>
+    <t>H01L31/12</t>
+  </si>
+  <si>
+    <t>H01L31/13</t>
+  </si>
+  <si>
+    <t>H01L31/14</t>
+  </si>
+  <si>
+    <t>H01L31/15</t>
+  </si>
+  <si>
+    <t>H01L31/16</t>
+  </si>
+  <si>
+    <t>H01L31/17</t>
+  </si>
+  <si>
+    <t>H01L31/18</t>
+  </si>
+  <si>
+    <t>H01L31/19</t>
+  </si>
+  <si>
+    <t>H01L31/20</t>
+  </si>
+  <si>
+    <t>H01L31/21</t>
+  </si>
+  <si>
+    <t>H01L31/22</t>
+  </si>
+  <si>
+    <t>H01L31/23</t>
+  </si>
+  <si>
+    <t>H01L31/24</t>
+  </si>
+  <si>
+    <t>H01L31/25</t>
+  </si>
+  <si>
+    <t>H01L31/26</t>
+  </si>
+  <si>
+    <t>H01L31/27</t>
+  </si>
+  <si>
+    <t>H01L31/28</t>
+  </si>
+  <si>
+    <t>H01L31/29</t>
+  </si>
+  <si>
+    <t>H01L31/30</t>
+  </si>
+  <si>
+    <t>H01L31/31</t>
+  </si>
+  <si>
+    <t>H01L31/32</t>
+  </si>
+  <si>
+    <t>H01L31/33</t>
+  </si>
+  <si>
+    <t>H01L31/34</t>
+  </si>
+  <si>
+    <t>H01L31/35</t>
+  </si>
+  <si>
+    <t>H01L31/36</t>
+  </si>
+  <si>
+    <t>H01L31/37</t>
+  </si>
+  <si>
+    <t>H01L31/38</t>
+  </si>
+  <si>
+    <t>H01L31/39</t>
+  </si>
+  <si>
+    <t>H01L31/40</t>
+  </si>
+  <si>
+    <t>H01L31/41</t>
+  </si>
+  <si>
+    <t>H01L31/42</t>
+  </si>
+  <si>
+    <t>H01L31/43</t>
+  </si>
+  <si>
+    <t>H01L31/44</t>
+  </si>
+  <si>
+    <t>H01L31/45</t>
+  </si>
+  <si>
+    <t>H01L31/46</t>
+  </si>
+  <si>
+    <t>H01L31/47</t>
+  </si>
+  <si>
+    <t>H01L31/48</t>
+  </si>
+  <si>
+    <t>H01L31/49</t>
+  </si>
+  <si>
+    <t>H01L31/50</t>
+  </si>
+  <si>
+    <t>H01L31/51</t>
+  </si>
+  <si>
+    <t>H01L31/52</t>
+  </si>
+  <si>
+    <t>H01L31/53</t>
+  </si>
+  <si>
+    <t>H01L31/54</t>
+  </si>
+  <si>
+    <t>H01L31/55</t>
+  </si>
+  <si>
+    <t>H01L31/56</t>
+  </si>
+  <si>
+    <t>H01L31/57</t>
+  </si>
+  <si>
+    <t>H01L31/58</t>
+  </si>
+  <si>
+    <t>H01L31/59</t>
+  </si>
+  <si>
+    <t>H01L31/60</t>
+  </si>
+  <si>
+    <t>H01L31/61</t>
+  </si>
+  <si>
+    <t>H01L31/62</t>
+  </si>
+  <si>
+    <t>H01L31/63</t>
+  </si>
+  <si>
+    <t>H01L31/64</t>
+  </si>
+  <si>
+    <t>H01L31/65</t>
+  </si>
+  <si>
+    <t>H01L31/66</t>
+  </si>
+  <si>
+    <t>H01L31/67</t>
+  </si>
+  <si>
+    <t>H01L31/68</t>
+  </si>
+  <si>
+    <t>H01L31/69</t>
+  </si>
+  <si>
+    <t>H01L31/70</t>
+  </si>
+  <si>
+    <t>H01L31/71</t>
+  </si>
+  <si>
+    <t>H01L31/72</t>
+  </si>
+  <si>
+    <t>H01L31/73</t>
+  </si>
+  <si>
+    <t>H01L31/74</t>
+  </si>
+  <si>
+    <t>H01L31/75</t>
+  </si>
+  <si>
+    <t>H01L31/76</t>
+  </si>
+  <si>
+    <t>H01L31/77</t>
+  </si>
+  <si>
+    <t>H01L31/78</t>
+  </si>
+  <si>
+    <t>H01G9/20</t>
+  </si>
+  <si>
+    <t>H02N6/00</t>
+  </si>
+  <si>
+    <t>H01L27/30</t>
+  </si>
+  <si>
+    <t>H01L51/42</t>
+  </si>
+  <si>
+    <t>H01L51/43</t>
+  </si>
+  <si>
+    <t>H01L51/44</t>
+  </si>
+  <si>
+    <t>H01L51/45</t>
+  </si>
+  <si>
+    <t>H01L51/46</t>
+  </si>
+  <si>
+    <t>H01L51/47</t>
+  </si>
+  <si>
+    <t>H01L51/48</t>
+  </si>
+  <si>
+    <t>H01L25/00</t>
+  </si>
+  <si>
+    <t>H01L25/03</t>
+  </si>
+  <si>
+    <t>H01L25/16</t>
+  </si>
+  <si>
+    <t>H01L25/18</t>
+  </si>
+  <si>
+    <t>H01L31/042</t>
+  </si>
+  <si>
+    <t>C01B33/02</t>
+  </si>
+  <si>
+    <t>C23C14/14</t>
+  </si>
+  <si>
+    <t>C23C16/24</t>
+  </si>
+  <si>
+    <t>C30B29/06</t>
+  </si>
+  <si>
+    <t>G05F1/67</t>
+  </si>
+  <si>
+    <t>F21L4/00</t>
+  </si>
+  <si>
+    <t>F21S9/03</t>
+  </si>
+  <si>
+    <t>H02J7/35</t>
+  </si>
+  <si>
+    <t>H01M14/00</t>
+  </si>
+  <si>
+    <t>F24J2/00</t>
+  </si>
+  <si>
+    <t>F24J2/01</t>
+  </si>
+  <si>
+    <t>F24J2/02</t>
+  </si>
+  <si>
+    <t>F24J2/03</t>
+  </si>
+  <si>
+    <t>F24J2/04</t>
+  </si>
+  <si>
+    <t>F24J2/05</t>
+  </si>
+  <si>
+    <t>F24J2/06</t>
+  </si>
+  <si>
+    <t>F24J2/07</t>
+  </si>
+  <si>
+    <t>F24J2/08</t>
+  </si>
+  <si>
+    <t>F24J2/09</t>
+  </si>
+  <si>
+    <t>F24J2/10</t>
+  </si>
+  <si>
+    <t>F24J2/11</t>
+  </si>
+  <si>
+    <t>F24J2/12</t>
+  </si>
+  <si>
+    <t>F24J2/13</t>
+  </si>
+  <si>
+    <t>F24J2/14</t>
+  </si>
+  <si>
+    <t>F24J2/15</t>
+  </si>
+  <si>
+    <t>F24J2/16</t>
+  </si>
+  <si>
+    <t>F24J2/17</t>
+  </si>
+  <si>
+    <t>F24J2/18</t>
+  </si>
+  <si>
+    <t>F24J2/19</t>
+  </si>
+  <si>
+    <t>F24J2/20</t>
+  </si>
+  <si>
+    <t>F24J2/21</t>
+  </si>
+  <si>
+    <t>F24J2/22</t>
+  </si>
+  <si>
+    <t>F24J2/23</t>
+  </si>
+  <si>
+    <t>F24J2/24</t>
+  </si>
+  <si>
+    <t>F24J2/25</t>
+  </si>
+  <si>
+    <t>F24J2/26</t>
+  </si>
+  <si>
+    <t>F24J2/27</t>
+  </si>
+  <si>
+    <t>F24J2/28</t>
+  </si>
+  <si>
+    <t>F24J2/29</t>
+  </si>
+  <si>
+    <t>F24J2/30</t>
+  </si>
+  <si>
+    <t>F24J2/31</t>
+  </si>
+  <si>
+    <t>F24J2/32</t>
+  </si>
+  <si>
+    <t>F24J2/33</t>
+  </si>
+  <si>
+    <t>F24J2/34</t>
+  </si>
+  <si>
+    <t>F24J2/35</t>
+  </si>
+  <si>
+    <t>F24J2/36</t>
+  </si>
+  <si>
+    <t>F24J2/37</t>
+  </si>
+  <si>
+    <t>F24J2/38</t>
+  </si>
+  <si>
+    <t>F24J2/39</t>
+  </si>
+  <si>
+    <t>F24J2/40</t>
+  </si>
+  <si>
+    <t>F24J2/41</t>
+  </si>
+  <si>
+    <t>F24J2/42</t>
+  </si>
+  <si>
+    <t>F24J2/43</t>
+  </si>
+  <si>
+    <t>F24J2/44</t>
+  </si>
+  <si>
+    <t>F24J2/45</t>
+  </si>
+  <si>
+    <t>F24J2/46</t>
+  </si>
+  <si>
+    <t>F24J2/47</t>
+  </si>
+  <si>
+    <t>F24J2/48</t>
+  </si>
+  <si>
+    <t>F24J2/49</t>
+  </si>
+  <si>
+    <t>F24J2/50</t>
+  </si>
+  <si>
+    <t>F24J2/51</t>
+  </si>
+  <si>
+    <t>F24J2/52</t>
+  </si>
+  <si>
+    <t>F24J2/53</t>
+  </si>
+  <si>
+    <t>F24J2/54</t>
+  </si>
+  <si>
+    <t>F24D17/00</t>
+  </si>
+  <si>
+    <t>F24D3/00</t>
+  </si>
+  <si>
+    <t>F24D5/00</t>
+  </si>
+  <si>
+    <t>F24D11/00</t>
+  </si>
+  <si>
+    <t>F24D19/00</t>
+  </si>
+  <si>
+    <t>F03D1/04</t>
+  </si>
+  <si>
+    <t>F03D9/00</t>
+  </si>
+  <si>
+    <t>F03G6/00</t>
+  </si>
+  <si>
+    <t>C02F1/14</t>
+  </si>
+  <si>
+    <t>F02C1/05</t>
+  </si>
+  <si>
+    <t>H01L31/058</t>
+  </si>
+  <si>
+    <t>F03G6/01</t>
+  </si>
+  <si>
+    <t>F03G6/02</t>
+  </si>
+  <si>
+    <t>F03G6/03</t>
+  </si>
+  <si>
+    <t>F03G6/04</t>
+  </si>
+  <si>
+    <t>F03G6/05</t>
+  </si>
+  <si>
+    <t>F03G6/06</t>
+  </si>
+  <si>
+    <t>E04D13/00</t>
+  </si>
+  <si>
+    <t>E04D13/18</t>
+  </si>
+  <si>
+    <t>F22B1/00</t>
+  </si>
+  <si>
+    <t>F24J1/00</t>
+  </si>
+  <si>
+    <t>F25B27/00</t>
+  </si>
+  <si>
+    <t>F26B3/00</t>
+  </si>
+  <si>
+    <t>F26B3/28</t>
+  </si>
+  <si>
+    <t>G02B7/183</t>
   </si>
   <si>
     <t>F01K</t>
   </si>
   <si>
-    <t>F24F 5/00</t>
-  </si>
-  <si>
-    <t>F24J 3/08</t>
-  </si>
-  <si>
-    <t>H02N 10/00</t>
-  </si>
-  <si>
-    <t>F25B 30/06</t>
-  </si>
-  <si>
-    <t>F03G 4/00</t>
-  </si>
-  <si>
-    <t>F03G 4/01</t>
-  </si>
-  <si>
-    <t>F03G 4/02</t>
-  </si>
-  <si>
-    <t>F03G 4/03</t>
-  </si>
-  <si>
-    <t>F03G 4/04</t>
-  </si>
-  <si>
-    <t>F03G 4/05</t>
-  </si>
-  <si>
-    <t>F03G 4/06</t>
-  </si>
-  <si>
-    <t>F03G 7/04</t>
-  </si>
-  <si>
-    <t>F24J 3/00</t>
-  </si>
-  <si>
-    <t>F24J 3/06</t>
-  </si>
-  <si>
-    <t>F24D 11/02</t>
-  </si>
-  <si>
-    <t>F24D 15/04</t>
-  </si>
-  <si>
-    <t>F24D 17/02</t>
-  </si>
-  <si>
-    <t>F24H 4/00</t>
-  </si>
-  <si>
-    <t>F25B 30/00</t>
-  </si>
-  <si>
-    <t>F01K 27/00</t>
-  </si>
-  <si>
-    <t>F01K 23/06</t>
-  </si>
-  <si>
-    <t>F01K 23/07</t>
-  </si>
-  <si>
-    <t>F01K 23/08</t>
-  </si>
-  <si>
-    <t>F01K 23/09</t>
-  </si>
-  <si>
-    <t>F01K 23/10</t>
-  </si>
-  <si>
-    <t>F01N 5/00</t>
-  </si>
-  <si>
-    <t>F02G 5/00</t>
-  </si>
-  <si>
-    <t>F02G 5/01</t>
-  </si>
-  <si>
-    <t>F02G 5/02</t>
-  </si>
-  <si>
-    <t>F02G 5/03</t>
-  </si>
-  <si>
-    <t>F02G 5/04</t>
-  </si>
-  <si>
-    <t>F25B 27/02</t>
-  </si>
-  <si>
-    <t>F01K 17/00</t>
-  </si>
-  <si>
-    <t>F01K 23/04</t>
-  </si>
-  <si>
-    <t>F02C 6/18</t>
-  </si>
-  <si>
-    <t>C02F 1/16</t>
-  </si>
-  <si>
-    <t>D21F 5/20</t>
-  </si>
-  <si>
-    <t>F22B 1/02</t>
-  </si>
-  <si>
-    <t>F23G 5/46</t>
-  </si>
-  <si>
-    <t>F24F 12/00</t>
-  </si>
-  <si>
-    <t>F27D 17/00</t>
-  </si>
-  <si>
-    <t>F28D 17/00</t>
-  </si>
-  <si>
-    <t>C10J 3/86</t>
-  </si>
-  <si>
-    <t>F03G 5/00</t>
-  </si>
-  <si>
-    <t>F03G 5/01</t>
-  </si>
-  <si>
-    <t>F03G 5/02</t>
-  </si>
-  <si>
-    <t>F03G 5/03</t>
-  </si>
-  <si>
-    <t>F03G 5/04</t>
-  </si>
-  <si>
-    <t>F03G 5/05</t>
-  </si>
-  <si>
-    <t>F03G 5/06</t>
-  </si>
-  <si>
-    <t>F03G 5/07</t>
-  </si>
-  <si>
-    <t>F03G 5/08</t>
-  </si>
-  <si>
-    <t>B60K 6/00</t>
-  </si>
-  <si>
-    <t>B60K 6/20</t>
-  </si>
-  <si>
-    <t>B60W 20/00</t>
-  </si>
-  <si>
-    <t>F16H 3/00</t>
-  </si>
-  <si>
-    <t>F16H 3/01</t>
-  </si>
-  <si>
-    <t>F16H 3/02</t>
-  </si>
-  <si>
-    <t>F16H 3/03</t>
-  </si>
-  <si>
-    <t>F16H 3/04</t>
-  </si>
-  <si>
-    <t>F16H 3/05</t>
-  </si>
-  <si>
-    <t>F16H 3/06</t>
-  </si>
-  <si>
-    <t>F16H 3/07</t>
-  </si>
-  <si>
-    <t>F16H 3/08</t>
-  </si>
-  <si>
-    <t>F16H 3/09</t>
-  </si>
-  <si>
-    <t>F16H 3/10</t>
-  </si>
-  <si>
-    <t>F16H 3/11</t>
-  </si>
-  <si>
-    <t>F16H 3/12</t>
-  </si>
-  <si>
-    <t>F16H 3/13</t>
-  </si>
-  <si>
-    <t>F16H 3/14</t>
-  </si>
-  <si>
-    <t>F16H 3/15</t>
-  </si>
-  <si>
-    <t>F16H 3/16</t>
-  </si>
-  <si>
-    <t>F16H 3/17</t>
-  </si>
-  <si>
-    <t>F16H 3/18</t>
-  </si>
-  <si>
-    <t>F16H 3/19</t>
-  </si>
-  <si>
-    <t>F16H 3/20</t>
-  </si>
-  <si>
-    <t>F16H 3/21</t>
-  </si>
-  <si>
-    <t>F16H 3/22</t>
-  </si>
-  <si>
-    <t>F16H 3/23</t>
-  </si>
-  <si>
-    <t>F16H 3/24</t>
-  </si>
-  <si>
-    <t>F16H 3/25</t>
-  </si>
-  <si>
-    <t>F16H 3/26</t>
-  </si>
-  <si>
-    <t>F16H 3/27</t>
-  </si>
-  <si>
-    <t>F16H 3/28</t>
-  </si>
-  <si>
-    <t>F16H 3/29</t>
-  </si>
-  <si>
-    <t>F16H 3/30</t>
-  </si>
-  <si>
-    <t>F16H 3/31</t>
-  </si>
-  <si>
-    <t>F16H 3/32</t>
-  </si>
-  <si>
-    <t>F16H 3/33</t>
-  </si>
-  <si>
-    <t>F16H 3/34</t>
-  </si>
-  <si>
-    <t>F16H 3/35</t>
-  </si>
-  <si>
-    <t>F16H 3/36</t>
-  </si>
-  <si>
-    <t>F16H 3/37</t>
-  </si>
-  <si>
-    <t>F16H 3/38</t>
-  </si>
-  <si>
-    <t>F16H 3/39</t>
-  </si>
-  <si>
-    <t>F16H 3/40</t>
-  </si>
-  <si>
-    <t>F16H 3/41</t>
-  </si>
-  <si>
-    <t>F16H 3/42</t>
-  </si>
-  <si>
-    <t>F16H 3/43</t>
-  </si>
-  <si>
-    <t>F16H 3/44</t>
-  </si>
-  <si>
-    <t>F16H 3/45</t>
-  </si>
-  <si>
-    <t>F16H 3/46</t>
-  </si>
-  <si>
-    <t>F16H 3/47</t>
-  </si>
-  <si>
-    <t>F16H 3/48</t>
-  </si>
-  <si>
-    <t>F16H 3/49</t>
-  </si>
-  <si>
-    <t>F16H 3/50</t>
-  </si>
-  <si>
-    <t>F16H 3/51</t>
-  </si>
-  <si>
-    <t>F16H 3/52</t>
-  </si>
-  <si>
-    <t>F16H 3/53</t>
-  </si>
-  <si>
-    <t>F16H 3/54</t>
-  </si>
-  <si>
-    <t>F16H 3/55</t>
-  </si>
-  <si>
-    <t>F16H 3/56</t>
-  </si>
-  <si>
-    <t>F16H 3/57</t>
-  </si>
-  <si>
-    <t>F16H 3/58</t>
-  </si>
-  <si>
-    <t>F16H 3/59</t>
-  </si>
-  <si>
-    <t>F16H 3/60</t>
-  </si>
-  <si>
-    <t>F16H 3/61</t>
-  </si>
-  <si>
-    <t>F16H 3/62</t>
-  </si>
-  <si>
-    <t>F16H 3/63</t>
-  </si>
-  <si>
-    <t>F16H 3/64</t>
-  </si>
-  <si>
-    <t>F16H 3/65</t>
-  </si>
-  <si>
-    <t>F16H 3/66</t>
-  </si>
-  <si>
-    <t>F16H 3/67</t>
-  </si>
-  <si>
-    <t>F16H 3/68</t>
-  </si>
-  <si>
-    <t>F16H 3/69</t>
-  </si>
-  <si>
-    <t>F16H 3/70</t>
-  </si>
-  <si>
-    <t>F16H 3/71</t>
-  </si>
-  <si>
-    <t>F16H 3/72</t>
-  </si>
-  <si>
-    <t>F16H 3/73</t>
-  </si>
-  <si>
-    <t>F16H 3/74</t>
-  </si>
-  <si>
-    <t>F16H 3/75</t>
-  </si>
-  <si>
-    <t>F16H 3/76</t>
-  </si>
-  <si>
-    <t>F16H 3/77</t>
-  </si>
-  <si>
-    <t>F16H 3/78</t>
-  </si>
-  <si>
-    <t>F16H 48/00</t>
-  </si>
-  <si>
-    <t>F16H 48/01</t>
-  </si>
-  <si>
-    <t>F16H 48/02</t>
-  </si>
-  <si>
-    <t>F16H 48/03</t>
-  </si>
-  <si>
-    <t>F16H 48/04</t>
-  </si>
-  <si>
-    <t>F16H 48/05</t>
-  </si>
-  <si>
-    <t>F16H 48/06</t>
-  </si>
-  <si>
-    <t>F16H 48/07</t>
-  </si>
-  <si>
-    <t>F16H 48/08</t>
-  </si>
-  <si>
-    <t>F16H 48/09</t>
-  </si>
-  <si>
-    <t>F16H 48/10</t>
-  </si>
-  <si>
-    <t>F16H 48/11</t>
-  </si>
-  <si>
-    <t>F16H 48/12</t>
-  </si>
-  <si>
-    <t>F16H 48/13</t>
-  </si>
-  <si>
-    <t>F16H 48/14</t>
-  </si>
-  <si>
-    <t>F16H 48/15</t>
-  </si>
-  <si>
-    <t>F16H 48/16</t>
-  </si>
-  <si>
-    <t>F16H 48/17</t>
-  </si>
-  <si>
-    <t>F16H 48/18</t>
-  </si>
-  <si>
-    <t>F16H 48/19</t>
-  </si>
-  <si>
-    <t>F16H 48/20</t>
-  </si>
-  <si>
-    <t>F16H 48/21</t>
-  </si>
-  <si>
-    <t>F16H 48/22</t>
-  </si>
-  <si>
-    <t>F16H 48/23</t>
-  </si>
-  <si>
-    <t>F16H 48/24</t>
-  </si>
-  <si>
-    <t>F16H 48/25</t>
-  </si>
-  <si>
-    <t>F16H 48/26</t>
-  </si>
-  <si>
-    <t>F16H 48/27</t>
-  </si>
-  <si>
-    <t>F16H 48/28</t>
-  </si>
-  <si>
-    <t>F16H 48/29</t>
-  </si>
-  <si>
-    <t>F16H 48/30</t>
-  </si>
-  <si>
-    <t>H02K 29/08</t>
-  </si>
-  <si>
-    <t>H02K 49/10</t>
-  </si>
-  <si>
-    <t>B60L 7/10</t>
-  </si>
-  <si>
-    <t>B60L 7/11</t>
-  </si>
-  <si>
-    <t>B60L 7/12</t>
-  </si>
-  <si>
-    <t>B60L 7/13</t>
-  </si>
-  <si>
-    <t>B60L 7/14</t>
-  </si>
-  <si>
-    <t>B60L 7/15</t>
-  </si>
-  <si>
-    <t>B60L 7/16</t>
-  </si>
-  <si>
-    <t>B60L 7/17</t>
-  </si>
-  <si>
-    <t>B60L 7/18</t>
-  </si>
-  <si>
-    <t>B60L 7/19</t>
-  </si>
-  <si>
-    <t>B60L 7/20</t>
-  </si>
-  <si>
-    <t>B60L 7/21</t>
-  </si>
-  <si>
-    <t>B60L 7/22</t>
-  </si>
-  <si>
-    <t>B60L 9/00</t>
-  </si>
-  <si>
-    <t>B60L 11/18</t>
-  </si>
-  <si>
-    <t>F02B 43/00</t>
-  </si>
-  <si>
-    <t>F02M 21/02</t>
-  </si>
-  <si>
-    <t>F02M 27/02</t>
-  </si>
-  <si>
-    <t>H02J 7/00</t>
-  </si>
-  <si>
-    <t>B62D 35/00</t>
-  </si>
-  <si>
-    <t>B62D 35/02</t>
-  </si>
-  <si>
-    <t>B63B 1/34</t>
-  </si>
-  <si>
-    <t>B63B 1/35</t>
-  </si>
-  <si>
-    <t>B63B 1/36</t>
-  </si>
-  <si>
-    <t>B63B 1/37</t>
-  </si>
-  <si>
-    <t>B63B 1/38</t>
-  </si>
-  <si>
-    <t>B63B 1/39</t>
-  </si>
-  <si>
-    <t>B63B 1/40</t>
+    <t>F24F5/00</t>
+  </si>
+  <si>
+    <t>F24J3/08</t>
+  </si>
+  <si>
+    <t>H02N10/00</t>
+  </si>
+  <si>
+    <t>F25B30/06</t>
+  </si>
+  <si>
+    <t>F03G4/00</t>
+  </si>
+  <si>
+    <t>F03G4/01</t>
+  </si>
+  <si>
+    <t>F03G4/02</t>
+  </si>
+  <si>
+    <t>F03G4/03</t>
+  </si>
+  <si>
+    <t>F03G4/04</t>
+  </si>
+  <si>
+    <t>F03G4/05</t>
+  </si>
+  <si>
+    <t>F03G4/06</t>
+  </si>
+  <si>
+    <t>F03G7/04</t>
+  </si>
+  <si>
+    <t>F24J3/00</t>
+  </si>
+  <si>
+    <t>F24J3/06</t>
+  </si>
+  <si>
+    <t>F24D11/02</t>
+  </si>
+  <si>
+    <t>F24D15/04</t>
+  </si>
+  <si>
+    <t>F24D17/02</t>
+  </si>
+  <si>
+    <t>F24H4/00</t>
+  </si>
+  <si>
+    <t>F25B30/00</t>
+  </si>
+  <si>
+    <t>F01K27/00</t>
+  </si>
+  <si>
+    <t>F01K23/06</t>
+  </si>
+  <si>
+    <t>F01K23/07</t>
+  </si>
+  <si>
+    <t>F01K23/08</t>
+  </si>
+  <si>
+    <t>F01K23/09</t>
+  </si>
+  <si>
+    <t>F01K23/10</t>
+  </si>
+  <si>
+    <t>F01N5/00</t>
+  </si>
+  <si>
+    <t>F02G5/00</t>
+  </si>
+  <si>
+    <t>F02G5/01</t>
+  </si>
+  <si>
+    <t>F02G5/02</t>
+  </si>
+  <si>
+    <t>F02G5/03</t>
+  </si>
+  <si>
+    <t>F02G5/04</t>
+  </si>
+  <si>
+    <t>F25B27/02</t>
+  </si>
+  <si>
+    <t>F01K17/00</t>
+  </si>
+  <si>
+    <t>F01K23/04</t>
+  </si>
+  <si>
+    <t>F02C6/18</t>
+  </si>
+  <si>
+    <t>C02F1/16</t>
+  </si>
+  <si>
+    <t>D21F5/20</t>
+  </si>
+  <si>
+    <t>F22B1/02</t>
+  </si>
+  <si>
+    <t>F23G5/46</t>
+  </si>
+  <si>
+    <t>F24F12/00</t>
+  </si>
+  <si>
+    <t>F27D17/00</t>
+  </si>
+  <si>
+    <t>F28D17/00</t>
+  </si>
+  <si>
+    <t>C10J3/86</t>
+  </si>
+  <si>
+    <t>F03G5/00</t>
+  </si>
+  <si>
+    <t>F03G5/01</t>
+  </si>
+  <si>
+    <t>F03G5/02</t>
+  </si>
+  <si>
+    <t>F03G5/03</t>
+  </si>
+  <si>
+    <t>F03G5/04</t>
+  </si>
+  <si>
+    <t>F03G5/05</t>
+  </si>
+  <si>
+    <t>F03G5/06</t>
+  </si>
+  <si>
+    <t>F03G5/07</t>
+  </si>
+  <si>
+    <t>F03G5/08</t>
+  </si>
+  <si>
+    <t>B60K6/00</t>
+  </si>
+  <si>
+    <t>B60K6/20</t>
+  </si>
+  <si>
+    <t>B60W20/00</t>
+  </si>
+  <si>
+    <t>F16H3/00</t>
+  </si>
+  <si>
+    <t>F16H3/01</t>
+  </si>
+  <si>
+    <t>F16H3/02</t>
+  </si>
+  <si>
+    <t>F16H3/03</t>
+  </si>
+  <si>
+    <t>F16H3/04</t>
+  </si>
+  <si>
+    <t>F16H3/05</t>
+  </si>
+  <si>
+    <t>F16H3/06</t>
+  </si>
+  <si>
+    <t>F16H3/07</t>
+  </si>
+  <si>
+    <t>F16H3/08</t>
+  </si>
+  <si>
+    <t>F16H3/09</t>
+  </si>
+  <si>
+    <t>F16H3/10</t>
+  </si>
+  <si>
+    <t>F16H3/11</t>
+  </si>
+  <si>
+    <t>F16H3/12</t>
+  </si>
+  <si>
+    <t>F16H3/13</t>
+  </si>
+  <si>
+    <t>F16H3/14</t>
+  </si>
+  <si>
+    <t>F16H3/15</t>
+  </si>
+  <si>
+    <t>F16H3/16</t>
+  </si>
+  <si>
+    <t>F16H3/17</t>
+  </si>
+  <si>
+    <t>F16H3/18</t>
+  </si>
+  <si>
+    <t>F16H3/19</t>
+  </si>
+  <si>
+    <t>F16H3/20</t>
+  </si>
+  <si>
+    <t>F16H3/21</t>
+  </si>
+  <si>
+    <t>F16H3/22</t>
+  </si>
+  <si>
+    <t>F16H3/23</t>
+  </si>
+  <si>
+    <t>F16H3/24</t>
+  </si>
+  <si>
+    <t>F16H3/25</t>
+  </si>
+  <si>
+    <t>F16H3/26</t>
+  </si>
+  <si>
+    <t>F16H3/27</t>
+  </si>
+  <si>
+    <t>F16H3/28</t>
+  </si>
+  <si>
+    <t>F16H3/29</t>
+  </si>
+  <si>
+    <t>F16H3/30</t>
+  </si>
+  <si>
+    <t>F16H3/31</t>
+  </si>
+  <si>
+    <t>F16H3/32</t>
+  </si>
+  <si>
+    <t>F16H3/33</t>
+  </si>
+  <si>
+    <t>F16H3/34</t>
+  </si>
+  <si>
+    <t>F16H3/35</t>
+  </si>
+  <si>
+    <t>F16H3/36</t>
+  </si>
+  <si>
+    <t>F16H3/37</t>
+  </si>
+  <si>
+    <t>F16H3/38</t>
+  </si>
+  <si>
+    <t>F16H3/39</t>
+  </si>
+  <si>
+    <t>F16H3/40</t>
+  </si>
+  <si>
+    <t>F16H3/41</t>
+  </si>
+  <si>
+    <t>F16H3/42</t>
+  </si>
+  <si>
+    <t>F16H3/43</t>
+  </si>
+  <si>
+    <t>F16H3/44</t>
+  </si>
+  <si>
+    <t>F16H3/45</t>
+  </si>
+  <si>
+    <t>F16H3/46</t>
+  </si>
+  <si>
+    <t>F16H3/47</t>
+  </si>
+  <si>
+    <t>F16H3/48</t>
+  </si>
+  <si>
+    <t>F16H3/49</t>
+  </si>
+  <si>
+    <t>F16H3/50</t>
+  </si>
+  <si>
+    <t>F16H3/51</t>
+  </si>
+  <si>
+    <t>F16H3/52</t>
+  </si>
+  <si>
+    <t>F16H3/53</t>
+  </si>
+  <si>
+    <t>F16H3/54</t>
+  </si>
+  <si>
+    <t>F16H3/55</t>
+  </si>
+  <si>
+    <t>F16H3/56</t>
+  </si>
+  <si>
+    <t>F16H3/57</t>
+  </si>
+  <si>
+    <t>F16H3/58</t>
+  </si>
+  <si>
+    <t>F16H3/59</t>
+  </si>
+  <si>
+    <t>F16H3/60</t>
+  </si>
+  <si>
+    <t>F16H3/61</t>
+  </si>
+  <si>
+    <t>F16H3/62</t>
+  </si>
+  <si>
+    <t>F16H3/63</t>
+  </si>
+  <si>
+    <t>F16H3/64</t>
+  </si>
+  <si>
+    <t>F16H3/65</t>
+  </si>
+  <si>
+    <t>F16H3/66</t>
+  </si>
+  <si>
+    <t>F16H3/67</t>
+  </si>
+  <si>
+    <t>F16H3/68</t>
+  </si>
+  <si>
+    <t>F16H3/69</t>
+  </si>
+  <si>
+    <t>F16H3/70</t>
+  </si>
+  <si>
+    <t>F16H3/71</t>
+  </si>
+  <si>
+    <t>F16H3/72</t>
+  </si>
+  <si>
+    <t>F16H3/73</t>
+  </si>
+  <si>
+    <t>F16H3/74</t>
+  </si>
+  <si>
+    <t>F16H3/75</t>
+  </si>
+  <si>
+    <t>F16H3/76</t>
+  </si>
+  <si>
+    <t>F16H3/77</t>
+  </si>
+  <si>
+    <t>F16H3/78</t>
+  </si>
+  <si>
+    <t>F16H48/00</t>
+  </si>
+  <si>
+    <t>F16H48/01</t>
+  </si>
+  <si>
+    <t>F16H48/02</t>
+  </si>
+  <si>
+    <t>F16H48/03</t>
+  </si>
+  <si>
+    <t>F16H48/04</t>
+  </si>
+  <si>
+    <t>F16H48/05</t>
+  </si>
+  <si>
+    <t>F16H48/06</t>
+  </si>
+  <si>
+    <t>F16H48/07</t>
+  </si>
+  <si>
+    <t>F16H48/08</t>
+  </si>
+  <si>
+    <t>F16H48/09</t>
+  </si>
+  <si>
+    <t>F16H48/10</t>
+  </si>
+  <si>
+    <t>F16H48/11</t>
+  </si>
+  <si>
+    <t>F16H48/12</t>
+  </si>
+  <si>
+    <t>F16H48/13</t>
+  </si>
+  <si>
+    <t>F16H48/14</t>
+  </si>
+  <si>
+    <t>F16H48/15</t>
+  </si>
+  <si>
+    <t>F16H48/16</t>
+  </si>
+  <si>
+    <t>F16H48/17</t>
+  </si>
+  <si>
+    <t>F16H48/18</t>
+  </si>
+  <si>
+    <t>F16H48/19</t>
+  </si>
+  <si>
+    <t>F16H48/20</t>
+  </si>
+  <si>
+    <t>F16H48/21</t>
+  </si>
+  <si>
+    <t>F16H48/22</t>
+  </si>
+  <si>
+    <t>F16H48/23</t>
+  </si>
+  <si>
+    <t>F16H48/24</t>
+  </si>
+  <si>
+    <t>F16H48/25</t>
+  </si>
+  <si>
+    <t>F16H48/26</t>
+  </si>
+  <si>
+    <t>F16H48/27</t>
+  </si>
+  <si>
+    <t>F16H48/28</t>
+  </si>
+  <si>
+    <t>F16H48/29</t>
+  </si>
+  <si>
+    <t>F16H48/30</t>
+  </si>
+  <si>
+    <t>H02K29/08</t>
+  </si>
+  <si>
+    <t>H02K49/10</t>
+  </si>
+  <si>
+    <t>B60L7/10</t>
+  </si>
+  <si>
+    <t>B60L7/11</t>
+  </si>
+  <si>
+    <t>B60L7/12</t>
+  </si>
+  <si>
+    <t>B60L7/13</t>
+  </si>
+  <si>
+    <t>B60L7/14</t>
+  </si>
+  <si>
+    <t>B60L7/15</t>
+  </si>
+  <si>
+    <t>B60L7/16</t>
+  </si>
+  <si>
+    <t>B60L7/17</t>
+  </si>
+  <si>
+    <t>B60L7/18</t>
+  </si>
+  <si>
+    <t>B60L7/19</t>
+  </si>
+  <si>
+    <t>B60L7/20</t>
+  </si>
+  <si>
+    <t>B60L7/21</t>
+  </si>
+  <si>
+    <t>B60L7/22</t>
+  </si>
+  <si>
+    <t>B60L9/00</t>
+  </si>
+  <si>
+    <t>B60L11/18</t>
+  </si>
+  <si>
+    <t>F02B43/00</t>
+  </si>
+  <si>
+    <t>F02M21/02</t>
+  </si>
+  <si>
+    <t>F02M27/02</t>
+  </si>
+  <si>
+    <t>H02J7/00</t>
+  </si>
+  <si>
+    <t>B62D35/00</t>
+  </si>
+  <si>
+    <t>B62D35/02</t>
+  </si>
+  <si>
+    <t>B63B1/34</t>
+  </si>
+  <si>
+    <t>B63B1/35</t>
+  </si>
+  <si>
+    <t>B63B1/36</t>
+  </si>
+  <si>
+    <t>B63B1/37</t>
+  </si>
+  <si>
+    <t>B63B1/38</t>
+  </si>
+  <si>
+    <t>B63B1/39</t>
+  </si>
+  <si>
+    <t>B63B1/40</t>
   </si>
   <si>
     <t>B62K</t>
   </si>
   <si>
-    <t>B62M 1/00</t>
-  </si>
-  <si>
-    <t>B62M 3/00</t>
-  </si>
-  <si>
-    <t>B62M 5/00</t>
-  </si>
-  <si>
-    <t>B62M 6/00</t>
+    <t>B62M1/00</t>
+  </si>
+  <si>
+    <t>B62M3/00</t>
+  </si>
+  <si>
+    <t>B62M5/00</t>
+  </si>
+  <si>
+    <t>B62M6/00</t>
   </si>
   <si>
     <t>B61</t>
   </si>
   <si>
-    <t>B61D 17/02</t>
-  </si>
-  <si>
-    <t>B63H 9/00</t>
-  </si>
-  <si>
-    <t>B63H 16/00</t>
-  </si>
-  <si>
-    <t>B63H 21/18</t>
-  </si>
-  <si>
-    <t>B64G 1/44</t>
-  </si>
-  <si>
-    <t>B60K 6/28</t>
-  </si>
-  <si>
-    <t>B60W 10/26</t>
-  </si>
-  <si>
-    <t>H01M 10/44</t>
-  </si>
-  <si>
-    <t>H01M 10/45</t>
-  </si>
-  <si>
-    <t>H01M 10/46</t>
-  </si>
-  <si>
-    <t>H01G 9/155</t>
-  </si>
-  <si>
-    <t>H02J 3/28</t>
-  </si>
-  <si>
-    <t>H02J 15/00</t>
+    <t>B61D17/02</t>
+  </si>
+  <si>
+    <t>B63H9/00</t>
+  </si>
+  <si>
+    <t>B63H16/00</t>
+  </si>
+  <si>
+    <t>B63H21/18</t>
+  </si>
+  <si>
+    <t>B64G1/44</t>
+  </si>
+  <si>
+    <t>B60K6/28</t>
+  </si>
+  <si>
+    <t>B60W10/26</t>
+  </si>
+  <si>
+    <t>H01M10/44</t>
+  </si>
+  <si>
+    <t>H01M10/45</t>
+  </si>
+  <si>
+    <t>H01M10/46</t>
+  </si>
+  <si>
+    <t>H01G9/155</t>
+  </si>
+  <si>
+    <t>H02J3/28</t>
+  </si>
+  <si>
+    <t>H02J15/00</t>
   </si>
   <si>
     <t>H02J</t>
   </si>
   <si>
-    <t>H02J 9/00</t>
-  </si>
-  <si>
-    <t>B60L 3/00</t>
+    <t>H02J9/00</t>
+  </si>
+  <si>
+    <t>B60L3/00</t>
   </si>
   <si>
     <t>G01R</t>
   </si>
   <si>
-    <t>C09K 5/00</t>
-  </si>
-  <si>
-    <t>F24H 7/00</t>
-  </si>
-  <si>
-    <t>F28D 20/00</t>
-  </si>
-  <si>
-    <t>F28D 20/02</t>
-  </si>
-  <si>
-    <t>F21K 99/00</t>
-  </si>
-  <si>
-    <t>F21L 4/02</t>
-  </si>
-  <si>
-    <t>H01L 33/00</t>
-  </si>
-  <si>
-    <t>H01L 33/01</t>
-  </si>
-  <si>
-    <t>H01L 33/02</t>
-  </si>
-  <si>
-    <t>H01L 33/03</t>
-  </si>
-  <si>
-    <t>H01L 33/04</t>
-  </si>
-  <si>
-    <t>H01L 33/05</t>
-  </si>
-  <si>
-    <t>H01L 33/06</t>
-  </si>
-  <si>
-    <t>H01L 33/07</t>
-  </si>
-  <si>
-    <t>H01L 33/08</t>
-  </si>
-  <si>
-    <t>H01L 33/09</t>
-  </si>
-  <si>
-    <t>H01L 33/10</t>
-  </si>
-  <si>
-    <t>H01L 33/11</t>
-  </si>
-  <si>
-    <t>H01L 33/12</t>
-  </si>
-  <si>
-    <t>H01L 33/13</t>
-  </si>
-  <si>
-    <t>H01L 33/14</t>
-  </si>
-  <si>
-    <t>H01L 33/15</t>
-  </si>
-  <si>
-    <t>H01L 33/16</t>
-  </si>
-  <si>
-    <t>H01L 33/17</t>
-  </si>
-  <si>
-    <t>H01L 33/18</t>
-  </si>
-  <si>
-    <t>H01L 33/19</t>
-  </si>
-  <si>
-    <t>H01L 33/20</t>
-  </si>
-  <si>
-    <t>H01L 33/21</t>
-  </si>
-  <si>
-    <t>H01L 33/22</t>
-  </si>
-  <si>
-    <t>H01L 33/23</t>
-  </si>
-  <si>
-    <t>H01L 33/24</t>
-  </si>
-  <si>
-    <t>H01L 33/25</t>
-  </si>
-  <si>
-    <t>H01L 33/26</t>
-  </si>
-  <si>
-    <t>H01L 33/27</t>
-  </si>
-  <si>
-    <t>H01L 33/28</t>
-  </si>
-  <si>
-    <t>H01L 33/29</t>
-  </si>
-  <si>
-    <t>H01L 33/30</t>
-  </si>
-  <si>
-    <t>H01L 33/31</t>
-  </si>
-  <si>
-    <t>H01L 33/32</t>
-  </si>
-  <si>
-    <t>H01L 33/33</t>
-  </si>
-  <si>
-    <t>H01L 33/34</t>
-  </si>
-  <si>
-    <t>H01L 33/35</t>
-  </si>
-  <si>
-    <t>H01L 33/36</t>
-  </si>
-  <si>
-    <t>H01L 33/37</t>
-  </si>
-  <si>
-    <t>H01L 33/38</t>
-  </si>
-  <si>
-    <t>H01L 33/39</t>
-  </si>
-  <si>
-    <t>H01L 33/40</t>
-  </si>
-  <si>
-    <t>H01L 33/41</t>
-  </si>
-  <si>
-    <t>H01L 33/42</t>
-  </si>
-  <si>
-    <t>H01L 33/43</t>
-  </si>
-  <si>
-    <t>H01L 33/44</t>
-  </si>
-  <si>
-    <t>H01L 33/45</t>
-  </si>
-  <si>
-    <t>H01L 33/46</t>
-  </si>
-  <si>
-    <t>H01L 33/47</t>
-  </si>
-  <si>
-    <t>H01L 33/48</t>
-  </si>
-  <si>
-    <t>H01L 33/49</t>
-  </si>
-  <si>
-    <t>H01L 33/50</t>
-  </si>
-  <si>
-    <t>H01L 33/51</t>
-  </si>
-  <si>
-    <t>H01L 33/52</t>
-  </si>
-  <si>
-    <t>H01L 33/53</t>
-  </si>
-  <si>
-    <t>H01L 33/54</t>
-  </si>
-  <si>
-    <t>H01L 33/55</t>
-  </si>
-  <si>
-    <t>H01L 33/56</t>
-  </si>
-  <si>
-    <t>H01L 33/57</t>
-  </si>
-  <si>
-    <t>H01L 33/58</t>
-  </si>
-  <si>
-    <t>H01L 33/59</t>
-  </si>
-  <si>
-    <t>H01L 33/60</t>
-  </si>
-  <si>
-    <t>H01L 33/61</t>
-  </si>
-  <si>
-    <t>H01L 33/62</t>
-  </si>
-  <si>
-    <t>H01L 33/63</t>
-  </si>
-  <si>
-    <t>H01L 33/64</t>
-  </si>
-  <si>
-    <t>H01L 51/50</t>
-  </si>
-  <si>
-    <t>H05B 33/00</t>
-  </si>
-  <si>
-    <t>E04B 1/62</t>
-  </si>
-  <si>
-    <t>E04B 1/74</t>
-  </si>
-  <si>
-    <t>E04B 1/75</t>
-  </si>
-  <si>
-    <t>E04B 1/76</t>
-  </si>
-  <si>
-    <t>E04B 1/77</t>
-  </si>
-  <si>
-    <t>E04B 1/78</t>
-  </si>
-  <si>
-    <t>E04B 1/79</t>
-  </si>
-  <si>
-    <t>E04B 1/80</t>
-  </si>
-  <si>
-    <t>E04B 1/88</t>
-  </si>
-  <si>
-    <t>E04B 1/90</t>
-  </si>
-  <si>
-    <t>E04C 1/40</t>
-  </si>
-  <si>
-    <t>E04C 1/41</t>
-  </si>
-  <si>
-    <t>E04C 2/284</t>
-  </si>
-  <si>
-    <t>E04C 2/285</t>
-  </si>
-  <si>
-    <t>E04C 2/286</t>
-  </si>
-  <si>
-    <t>E04C 2/287</t>
-  </si>
-  <si>
-    <t>E04C 2/288</t>
-  </si>
-  <si>
-    <t>E04C 2/289</t>
-  </si>
-  <si>
-    <t>E04C 2/290</t>
-  </si>
-  <si>
-    <t>E04C 2/291</t>
-  </si>
-  <si>
-    <t>E04C 2/292</t>
-  </si>
-  <si>
-    <t>E04C 2/293</t>
-  </si>
-  <si>
-    <t>E04C 2/294</t>
-  </si>
-  <si>
-    <t>E04C 2/295</t>
-  </si>
-  <si>
-    <t>E04C 2/296</t>
-  </si>
-  <si>
-    <t>E06B 3/263</t>
-  </si>
-  <si>
-    <t>E04B 2/00</t>
-  </si>
-  <si>
-    <t>E04F 13/08</t>
-  </si>
-  <si>
-    <t>E04B 5/00</t>
-  </si>
-  <si>
-    <t>E04F 15/18</t>
-  </si>
-  <si>
-    <t>E04B 7/00</t>
-  </si>
-  <si>
-    <t>E04D 1/28</t>
-  </si>
-  <si>
-    <t>E04D 3/35</t>
-  </si>
-  <si>
-    <t>E04D 13/16</t>
-  </si>
-  <si>
-    <t>E04B 9/00</t>
-  </si>
-  <si>
-    <t>F03G 7/08</t>
-  </si>
-  <si>
-    <t>B60K 6/10</t>
-  </si>
-  <si>
-    <t>B60K 6/30</t>
-  </si>
-  <si>
-    <t>B60L 11/16</t>
+    <t>C09K5/00</t>
+  </si>
+  <si>
+    <t>F24H7/00</t>
+  </si>
+  <si>
+    <t>F28D20/00</t>
+  </si>
+  <si>
+    <t>F28D20/02</t>
+  </si>
+  <si>
+    <t>F21K99/00</t>
+  </si>
+  <si>
+    <t>F21L4/02</t>
+  </si>
+  <si>
+    <t>H01L33/00</t>
+  </si>
+  <si>
+    <t>H01L33/01</t>
+  </si>
+  <si>
+    <t>H01L33/02</t>
+  </si>
+  <si>
+    <t>H01L33/03</t>
+  </si>
+  <si>
+    <t>H01L33/04</t>
+  </si>
+  <si>
+    <t>H01L33/05</t>
+  </si>
+  <si>
+    <t>H01L33/06</t>
+  </si>
+  <si>
+    <t>H01L33/07</t>
+  </si>
+  <si>
+    <t>H01L33/08</t>
+  </si>
+  <si>
+    <t>H01L33/09</t>
+  </si>
+  <si>
+    <t>H01L33/10</t>
+  </si>
+  <si>
+    <t>H01L33/11</t>
+  </si>
+  <si>
+    <t>H01L33/12</t>
+  </si>
+  <si>
+    <t>H01L33/13</t>
+  </si>
+  <si>
+    <t>H01L33/14</t>
+  </si>
+  <si>
+    <t>H01L33/15</t>
+  </si>
+  <si>
+    <t>H01L33/16</t>
+  </si>
+  <si>
+    <t>H01L33/17</t>
+  </si>
+  <si>
+    <t>H01L33/18</t>
+  </si>
+  <si>
+    <t>H01L33/19</t>
+  </si>
+  <si>
+    <t>H01L33/20</t>
+  </si>
+  <si>
+    <t>H01L33/21</t>
+  </si>
+  <si>
+    <t>H01L33/22</t>
+  </si>
+  <si>
+    <t>H01L33/23</t>
+  </si>
+  <si>
+    <t>H01L33/24</t>
+  </si>
+  <si>
+    <t>H01L33/25</t>
+  </si>
+  <si>
+    <t>H01L33/26</t>
+  </si>
+  <si>
+    <t>H01L33/27</t>
+  </si>
+  <si>
+    <t>H01L33/28</t>
+  </si>
+  <si>
+    <t>H01L33/29</t>
+  </si>
+  <si>
+    <t>H01L33/30</t>
+  </si>
+  <si>
+    <t>H01L33/31</t>
+  </si>
+  <si>
+    <t>H01L33/32</t>
+  </si>
+  <si>
+    <t>H01L33/33</t>
+  </si>
+  <si>
+    <t>H01L33/34</t>
+  </si>
+  <si>
+    <t>H01L33/35</t>
+  </si>
+  <si>
+    <t>H01L33/36</t>
+  </si>
+  <si>
+    <t>H01L33/37</t>
+  </si>
+  <si>
+    <t>H01L33/38</t>
+  </si>
+  <si>
+    <t>H01L33/39</t>
+  </si>
+  <si>
+    <t>H01L33/40</t>
+  </si>
+  <si>
+    <t>H01L33/41</t>
+  </si>
+  <si>
+    <t>H01L33/42</t>
+  </si>
+  <si>
+    <t>H01L33/43</t>
+  </si>
+  <si>
+    <t>H01L33/44</t>
+  </si>
+  <si>
+    <t>H01L33/45</t>
+  </si>
+  <si>
+    <t>H01L33/46</t>
+  </si>
+  <si>
+    <t>H01L33/47</t>
+  </si>
+  <si>
+    <t>H01L33/48</t>
+  </si>
+  <si>
+    <t>H01L33/49</t>
+  </si>
+  <si>
+    <t>H01L33/50</t>
+  </si>
+  <si>
+    <t>H01L33/51</t>
+  </si>
+  <si>
+    <t>H01L33/52</t>
+  </si>
+  <si>
+    <t>H01L33/53</t>
+  </si>
+  <si>
+    <t>H01L33/54</t>
+  </si>
+  <si>
+    <t>H01L33/55</t>
+  </si>
+  <si>
+    <t>H01L33/56</t>
+  </si>
+  <si>
+    <t>H01L33/57</t>
+  </si>
+  <si>
+    <t>H01L33/58</t>
+  </si>
+  <si>
+    <t>H01L33/59</t>
+  </si>
+  <si>
+    <t>H01L33/60</t>
+  </si>
+  <si>
+    <t>H01L33/61</t>
+  </si>
+  <si>
+    <t>H01L33/62</t>
+  </si>
+  <si>
+    <t>H01L33/63</t>
+  </si>
+  <si>
+    <t>H01L33/64</t>
+  </si>
+  <si>
+    <t>H01L51/50</t>
+  </si>
+  <si>
+    <t>H05B33/00</t>
+  </si>
+  <si>
+    <t>E04B1/62</t>
+  </si>
+  <si>
+    <t>E04B1/74</t>
+  </si>
+  <si>
+    <t>E04B1/75</t>
+  </si>
+  <si>
+    <t>E04B1/76</t>
+  </si>
+  <si>
+    <t>E04B1/77</t>
+  </si>
+  <si>
+    <t>E04B1/78</t>
+  </si>
+  <si>
+    <t>E04B1/79</t>
+  </si>
+  <si>
+    <t>E04B1/80</t>
+  </si>
+  <si>
+    <t>E04B1/88</t>
+  </si>
+  <si>
+    <t>E04B1/90</t>
+  </si>
+  <si>
+    <t>E04C1/40</t>
+  </si>
+  <si>
+    <t>E04C1/41</t>
+  </si>
+  <si>
+    <t>E04C2/284</t>
+  </si>
+  <si>
+    <t>E04C2/285</t>
+  </si>
+  <si>
+    <t>E04C2/286</t>
+  </si>
+  <si>
+    <t>E04C2/287</t>
+  </si>
+  <si>
+    <t>E04C2/288</t>
+  </si>
+  <si>
+    <t>E04C2/289</t>
+  </si>
+  <si>
+    <t>E04C2/290</t>
+  </si>
+  <si>
+    <t>E04C2/291</t>
+  </si>
+  <si>
+    <t>E04C2/292</t>
+  </si>
+  <si>
+    <t>E04C2/293</t>
+  </si>
+  <si>
+    <t>E04C2/294</t>
+  </si>
+  <si>
+    <t>E04C2/295</t>
+  </si>
+  <si>
+    <t>E04C2/296</t>
+  </si>
+  <si>
+    <t>E06B3/263</t>
+  </si>
+  <si>
+    <t>E04B2/00</t>
+  </si>
+  <si>
+    <t>E04F13/08</t>
+  </si>
+  <si>
+    <t>E04B5/00</t>
+  </si>
+  <si>
+    <t>E04F15/18</t>
+  </si>
+  <si>
+    <t>E04B7/00</t>
+  </si>
+  <si>
+    <t>E04D1/28</t>
+  </si>
+  <si>
+    <t>E04D3/35</t>
+  </si>
+  <si>
+    <t>E04D13/16</t>
+  </si>
+  <si>
+    <t>E04B9/00</t>
+  </si>
+  <si>
+    <t>F03G7/08</t>
+  </si>
+  <si>
+    <t>B60K6/10</t>
+  </si>
+  <si>
+    <t>B60K6/30</t>
+  </si>
+  <si>
+    <t>B60L11/16</t>
   </si>
   <si>
     <t>B65F</t>
   </si>
   <si>
-    <t>A61L 11/00</t>
-  </si>
-  <si>
-    <t>A62D 3/00</t>
-  </si>
-  <si>
-    <t>A62D 101/00</t>
-  </si>
-  <si>
-    <t>G21F 9/00</t>
-  </si>
-  <si>
-    <t>B03B 9/06</t>
+    <t>A61L11/00</t>
+  </si>
+  <si>
+    <t>A62D3/00</t>
+  </si>
+  <si>
+    <t>A62D101/00</t>
+  </si>
+  <si>
+    <t>G21F9/00</t>
+  </si>
+  <si>
+    <t>B03B9/06</t>
   </si>
   <si>
     <t>B09C</t>
   </si>
   <si>
-    <t>D21B 1/08</t>
-  </si>
-  <si>
-    <t>D21B 1/32</t>
+    <t>D21B1/08</t>
+  </si>
+  <si>
+    <t>D21B1/32</t>
   </si>
   <si>
     <t>F23G</t>
   </si>
   <si>
-    <t>A43B 1/12</t>
-  </si>
-  <si>
-    <t>A43B 21/14</t>
-  </si>
-  <si>
-    <t>B22F 8/00</t>
-  </si>
-  <si>
-    <t>C04B 7/24</t>
-  </si>
-  <si>
-    <t>C04B 7/25</t>
-  </si>
-  <si>
-    <t>C04B 7/26</t>
-  </si>
-  <si>
-    <t>C04B 7/27</t>
-  </si>
-  <si>
-    <t>C04B 7/28</t>
-  </si>
-  <si>
-    <t>C04B 7/29</t>
-  </si>
-  <si>
-    <t>C04B 7/30</t>
-  </si>
-  <si>
-    <t>C04B 18/04</t>
-  </si>
-  <si>
-    <t>C04B 18/05</t>
-  </si>
-  <si>
-    <t>C04B 18/06</t>
-  </si>
-  <si>
-    <t>C04B 18/07</t>
-  </si>
-  <si>
-    <t>C04B 18/08</t>
-  </si>
-  <si>
-    <t>C04B 18/09</t>
-  </si>
-  <si>
-    <t>C04B 18/10</t>
+    <t>A43B1/12</t>
+  </si>
+  <si>
+    <t>A43B21/14</t>
+  </si>
+  <si>
+    <t>B22F8/00</t>
+  </si>
+  <si>
+    <t>C04B7/24</t>
+  </si>
+  <si>
+    <t>C04B7/25</t>
+  </si>
+  <si>
+    <t>C04B7/26</t>
+  </si>
+  <si>
+    <t>C04B7/27</t>
+  </si>
+  <si>
+    <t>C04B7/28</t>
+  </si>
+  <si>
+    <t>C04B7/29</t>
+  </si>
+  <si>
+    <t>C04B7/30</t>
+  </si>
+  <si>
+    <t>C04B18/04</t>
+  </si>
+  <si>
+    <t>C04B18/05</t>
+  </si>
+  <si>
+    <t>C04B18/06</t>
+  </si>
+  <si>
+    <t>C04B18/07</t>
+  </si>
+  <si>
+    <t>C04B18/08</t>
+  </si>
+  <si>
+    <t>C04B18/09</t>
+  </si>
+  <si>
+    <t>C04B18/10</t>
   </si>
   <si>
     <t>C05F</t>
   </si>
   <si>
-    <t>C08J 11/00</t>
-  </si>
-  <si>
-    <t>C08J 11/01</t>
-  </si>
-  <si>
-    <t>C08J 11/02</t>
-  </si>
-  <si>
-    <t>C08J 11/03</t>
-  </si>
-  <si>
-    <t>C08J 11/04</t>
-  </si>
-  <si>
-    <t>C08J 11/05</t>
-  </si>
-  <si>
-    <t>C08J 11/06</t>
-  </si>
-  <si>
-    <t>C08J 11/07</t>
-  </si>
-  <si>
-    <t>C08J 11/08</t>
-  </si>
-  <si>
-    <t>C08J 11/09</t>
-  </si>
-  <si>
-    <t>C08J 11/10</t>
-  </si>
-  <si>
-    <t>C08J 11/11</t>
-  </si>
-  <si>
-    <t>C08J 11/12</t>
-  </si>
-  <si>
-    <t>C08J 11/13</t>
-  </si>
-  <si>
-    <t>C08J 11/14</t>
-  </si>
-  <si>
-    <t>C08J 11/15</t>
-  </si>
-  <si>
-    <t>C08J 11/16</t>
-  </si>
-  <si>
-    <t>C08J 11/17</t>
-  </si>
-  <si>
-    <t>C08J 11/18</t>
-  </si>
-  <si>
-    <t>C08J 11/19</t>
-  </si>
-  <si>
-    <t>C08J 11/20</t>
-  </si>
-  <si>
-    <t>C08J 11/21</t>
-  </si>
-  <si>
-    <t>C08J 11/22</t>
-  </si>
-  <si>
-    <t>C08J 11/23</t>
-  </si>
-  <si>
-    <t>C08J 11/24</t>
-  </si>
-  <si>
-    <t>C08J 11/25</t>
-  </si>
-  <si>
-    <t>C08J 11/26</t>
-  </si>
-  <si>
-    <t>C08J 11/27</t>
-  </si>
-  <si>
-    <t>C08J 11/28</t>
-  </si>
-  <si>
-    <t>C09K 11/01</t>
-  </si>
-  <si>
-    <t>C11B 11/00</t>
-  </si>
-  <si>
-    <t>C11B 13/00</t>
-  </si>
-  <si>
-    <t>C11B 13/01</t>
-  </si>
-  <si>
-    <t>C11B 13/02</t>
-  </si>
-  <si>
-    <t>C11B 13/03</t>
-  </si>
-  <si>
-    <t>C11B 13/04</t>
-  </si>
-  <si>
-    <t>C14C 3/32</t>
-  </si>
-  <si>
-    <t>C21B 3/04</t>
-  </si>
-  <si>
-    <t>C25C 1/00</t>
-  </si>
-  <si>
-    <t>D01F 13/00</t>
-  </si>
-  <si>
-    <t>D01F 13/01</t>
-  </si>
-  <si>
-    <t>D01F 13/02</t>
-  </si>
-  <si>
-    <t>D01F 13/03</t>
-  </si>
-  <si>
-    <t>D01F 13/04</t>
-  </si>
-  <si>
-    <t>B29B 17/00</t>
-  </si>
-  <si>
-    <t>B62D 67/00</t>
-  </si>
-  <si>
-    <t>C10G 1/10</t>
-  </si>
-  <si>
-    <t>C22B 7/00</t>
-  </si>
-  <si>
-    <t>C22B 7/01</t>
-  </si>
-  <si>
-    <t>C22B 7/02</t>
-  </si>
-  <si>
-    <t>C22B 7/03</t>
-  </si>
-  <si>
-    <t>C22B 7/04</t>
-  </si>
-  <si>
-    <t>C22B 19/30</t>
-  </si>
-  <si>
-    <t>C22B 25/06</t>
-  </si>
-  <si>
-    <t>D01G 11/00</t>
-  </si>
-  <si>
-    <t>D21C 5/02</t>
-  </si>
-  <si>
-    <t>H01J 9/50</t>
-  </si>
-  <si>
-    <t>H01J 9/52</t>
-  </si>
-  <si>
-    <t>H01M 6/52</t>
-  </si>
-  <si>
-    <t>H01M 10/54</t>
-  </si>
-  <si>
-    <t>B01D 53/62</t>
-  </si>
-  <si>
-    <t>B65G 5/00</t>
-  </si>
-  <si>
-    <t>C01B 31/20</t>
-  </si>
-  <si>
-    <t>E21B 41/00</t>
-  </si>
-  <si>
-    <t>E21B 43/16</t>
-  </si>
-  <si>
-    <t>E21F 17/16</t>
-  </si>
-  <si>
-    <t>F25J 3/02</t>
-  </si>
-  <si>
-    <t>B01D 53/00</t>
-  </si>
-  <si>
-    <t>B01D 53/01</t>
-  </si>
-  <si>
-    <t>B01D 53/03</t>
-  </si>
-  <si>
-    <t>B01D 53/05</t>
-  </si>
-  <si>
-    <t>B01D 53/06</t>
-  </si>
-  <si>
-    <t>B01D 53/07</t>
-  </si>
-  <si>
-    <t>B01D 53/08</t>
-  </si>
-  <si>
-    <t>B01D 53/09</t>
-  </si>
-  <si>
-    <t>B01D 53/10</t>
-  </si>
-  <si>
-    <t>B01D 53/11</t>
-  </si>
-  <si>
-    <t>B01D 53/12</t>
-  </si>
-  <si>
-    <t>B01D 53/13</t>
-  </si>
-  <si>
-    <t>B01D 53/15</t>
-  </si>
-  <si>
-    <t>B01D 53/16</t>
-  </si>
-  <si>
-    <t>B01D 53/17</t>
-  </si>
-  <si>
-    <t>B01D 53/18</t>
-  </si>
-  <si>
-    <t>B01D 53/19</t>
-  </si>
-  <si>
-    <t>B01D 53/20</t>
-  </si>
-  <si>
-    <t>B01D 53/21</t>
-  </si>
-  <si>
-    <t>B01D 53/23</t>
-  </si>
-  <si>
-    <t>B01D 53/25</t>
-  </si>
-  <si>
-    <t>B01D 53/26</t>
-  </si>
-  <si>
-    <t>B01D 53/27</t>
-  </si>
-  <si>
-    <t>B01D 53/28</t>
-  </si>
-  <si>
-    <t>B01D 53/29</t>
-  </si>
-  <si>
-    <t>B01D 53/30</t>
-  </si>
-  <si>
-    <t>B01D 53/31</t>
-  </si>
-  <si>
-    <t>B01D 53/32</t>
-  </si>
-  <si>
-    <t>B01D 53/33</t>
-  </si>
-  <si>
-    <t>B01D 53/34</t>
-  </si>
-  <si>
-    <t>B01D 53/35</t>
-  </si>
-  <si>
-    <t>B01D 53/36</t>
-  </si>
-  <si>
-    <t>B01D 53/37</t>
-  </si>
-  <si>
-    <t>B01D 53/38</t>
-  </si>
-  <si>
-    <t>B01D 53/39</t>
-  </si>
-  <si>
-    <t>B01D 53/40</t>
-  </si>
-  <si>
-    <t>B01D 53/41</t>
-  </si>
-  <si>
-    <t>B01D 53/42</t>
-  </si>
-  <si>
-    <t>B01D 53/43</t>
-  </si>
-  <si>
-    <t>B01D 53/44</t>
-  </si>
-  <si>
-    <t>B01D 53/45</t>
-  </si>
-  <si>
-    <t>B01D 53/46</t>
-  </si>
-  <si>
-    <t>B01D 53/47</t>
-  </si>
-  <si>
-    <t>B01D 53/48</t>
-  </si>
-  <si>
-    <t>B01D 53/49</t>
-  </si>
-  <si>
-    <t>B01D 53/50</t>
-  </si>
-  <si>
-    <t>B01D 53/51</t>
-  </si>
-  <si>
-    <t>B01D 53/52</t>
-  </si>
-  <si>
-    <t>B01D 53/53</t>
-  </si>
-  <si>
-    <t>B01D 53/54</t>
-  </si>
-  <si>
-    <t>B01D 53/55</t>
-  </si>
-  <si>
-    <t>B01D 53/56</t>
-  </si>
-  <si>
-    <t>B01D 53/57</t>
-  </si>
-  <si>
-    <t>B01D 53/58</t>
-  </si>
-  <si>
-    <t>B01D 53/59</t>
-  </si>
-  <si>
-    <t>B01D 53/60</t>
-  </si>
-  <si>
-    <t>B01D 53/61</t>
-  </si>
-  <si>
-    <t>B01D 53/63</t>
-  </si>
-  <si>
-    <t>B01D 53/64</t>
-  </si>
-  <si>
-    <t>B01D 53/65</t>
-  </si>
-  <si>
-    <t>B01D 53/66</t>
-  </si>
-  <si>
-    <t>B01D 53/67</t>
-  </si>
-  <si>
-    <t>B01D 53/68</t>
-  </si>
-  <si>
-    <t>B01D 53/69</t>
-  </si>
-  <si>
-    <t>B01D 53/70</t>
-  </si>
-  <si>
-    <t>B01D 53/71</t>
-  </si>
-  <si>
-    <t>B01D 53/72</t>
-  </si>
-  <si>
-    <t>B01D 53/73</t>
-  </si>
-  <si>
-    <t>B01D 53/74</t>
-  </si>
-  <si>
-    <t>B01D 53/75</t>
-  </si>
-  <si>
-    <t>B01D 53/76</t>
-  </si>
-  <si>
-    <t>B01D 53/77</t>
-  </si>
-  <si>
-    <t>B01D 53/78</t>
-  </si>
-  <si>
-    <t>B01D 53/79</t>
-  </si>
-  <si>
-    <t>B01D 53/80</t>
-  </si>
-  <si>
-    <t>B01D 53/81</t>
-  </si>
-  <si>
-    <t>B01D 53/82</t>
-  </si>
-  <si>
-    <t>B01D 53/83</t>
-  </si>
-  <si>
-    <t>B01D 53/84</t>
-  </si>
-  <si>
-    <t>B01D 53/85</t>
-  </si>
-  <si>
-    <t>B01D 53/86</t>
-  </si>
-  <si>
-    <t>B01D 53/87</t>
-  </si>
-  <si>
-    <t>B01D 53/88</t>
-  </si>
-  <si>
-    <t>B01D 53/89</t>
-  </si>
-  <si>
-    <t>B01D 53/90</t>
-  </si>
-  <si>
-    <t>B01D 53/91</t>
-  </si>
-  <si>
-    <t>B01D 53/92</t>
-  </si>
-  <si>
-    <t>B01D 53/93</t>
-  </si>
-  <si>
-    <t>B01D 53/94</t>
-  </si>
-  <si>
-    <t>B01D 53/95</t>
-  </si>
-  <si>
-    <t>B01D 53/96</t>
-  </si>
-  <si>
-    <t>F01N 3/00</t>
-  </si>
-  <si>
-    <t>F01N 3/01</t>
-  </si>
-  <si>
-    <t>F01N 3/02</t>
-  </si>
-  <si>
-    <t>F01N 3/03</t>
-  </si>
-  <si>
-    <t>F01N 3/04</t>
-  </si>
-  <si>
-    <t>F01N 3/05</t>
-  </si>
-  <si>
-    <t>F01N 3/06</t>
-  </si>
-  <si>
-    <t>F01N 3/07</t>
-  </si>
-  <si>
-    <t>F01N 3/08</t>
-  </si>
-  <si>
-    <t>F01N 3/09</t>
-  </si>
-  <si>
-    <t>F01N 3/10</t>
-  </si>
-  <si>
-    <t>F01N 3/11</t>
-  </si>
-  <si>
-    <t>F01N 3/12</t>
-  </si>
-  <si>
-    <t>F01N 3/13</t>
-  </si>
-  <si>
-    <t>F01N 3/14</t>
-  </si>
-  <si>
-    <t>F01N 3/15</t>
-  </si>
-  <si>
-    <t>F01N 3/16</t>
-  </si>
-  <si>
-    <t>F01N 3/17</t>
-  </si>
-  <si>
-    <t>F01N 3/18</t>
-  </si>
-  <si>
-    <t>F01N 3/19</t>
-  </si>
-  <si>
-    <t>F01N 3/20</t>
-  </si>
-  <si>
-    <t>F01N 3/21</t>
-  </si>
-  <si>
-    <t>F01N 3/22</t>
-  </si>
-  <si>
-    <t>F01N 3/23</t>
-  </si>
-  <si>
-    <t>F01N 3/24</t>
-  </si>
-  <si>
-    <t>F01N 3/25</t>
-  </si>
-  <si>
-    <t>F01N 3/26</t>
-  </si>
-  <si>
-    <t>F01N 3/27</t>
-  </si>
-  <si>
-    <t>F01N 3/28</t>
-  </si>
-  <si>
-    <t>F01N 3/29</t>
-  </si>
-  <si>
-    <t>F01N 3/30</t>
-  </si>
-  <si>
-    <t>F01N 3/31</t>
-  </si>
-  <si>
-    <t>F01N 3/32</t>
-  </si>
-  <si>
-    <t>F01N 3/33</t>
-  </si>
-  <si>
-    <t>F01N 3/34</t>
-  </si>
-  <si>
-    <t>F01N 3/35</t>
-  </si>
-  <si>
-    <t>F01N 3/36</t>
-  </si>
-  <si>
-    <t>F01N 3/37</t>
-  </si>
-  <si>
-    <t>F01N 3/38</t>
-  </si>
-  <si>
-    <t>F02B 75/10</t>
-  </si>
-  <si>
-    <t>C21C 5/38</t>
-  </si>
-  <si>
-    <t>C10B 21/18</t>
-  </si>
-  <si>
-    <t>F23B 80/02</t>
-  </si>
-  <si>
-    <t>F23C 9/00</t>
-  </si>
-  <si>
-    <t>F23G 7/06</t>
-  </si>
-  <si>
-    <t>F01N 9/00</t>
-  </si>
-  <si>
-    <t>B01D 45/00</t>
-  </si>
-  <si>
-    <t>B03C 3/00</t>
-  </si>
-  <si>
-    <t>C21B 7/22</t>
-  </si>
-  <si>
-    <t>F27B 1/18</t>
-  </si>
-  <si>
-    <t>F27B 15/12</t>
-  </si>
-  <si>
-    <t>C10L 10/02</t>
-  </si>
-  <si>
-    <t>C10L 10/06</t>
-  </si>
-  <si>
-    <t>F23J 7/00</t>
-  </si>
-  <si>
-    <t>F23J 15/00</t>
-  </si>
-  <si>
-    <t>C09K 3/22</t>
-  </si>
-  <si>
-    <t>G08B 21/12</t>
-  </si>
-  <si>
-    <t>B63J 4/00</t>
+    <t>C08J11/00</t>
+  </si>
+  <si>
+    <t>C08J11/01</t>
+  </si>
+  <si>
+    <t>C08J11/02</t>
+  </si>
+  <si>
+    <t>C08J11/03</t>
+  </si>
+  <si>
+    <t>C08J11/04</t>
+  </si>
+  <si>
+    <t>C08J11/05</t>
+  </si>
+  <si>
+    <t>C08J11/06</t>
+  </si>
+  <si>
+    <t>C08J11/07</t>
+  </si>
+  <si>
+    <t>C08J11/08</t>
+  </si>
+  <si>
+    <t>C08J11/09</t>
+  </si>
+  <si>
+    <t>C08J11/10</t>
+  </si>
+  <si>
+    <t>C08J11/11</t>
+  </si>
+  <si>
+    <t>C08J11/12</t>
+  </si>
+  <si>
+    <t>C08J11/13</t>
+  </si>
+  <si>
+    <t>C08J11/14</t>
+  </si>
+  <si>
+    <t>C08J11/15</t>
+  </si>
+  <si>
+    <t>C08J11/16</t>
+  </si>
+  <si>
+    <t>C08J11/17</t>
+  </si>
+  <si>
+    <t>C08J11/18</t>
+  </si>
+  <si>
+    <t>C08J11/19</t>
+  </si>
+  <si>
+    <t>C08J11/20</t>
+  </si>
+  <si>
+    <t>C08J11/21</t>
+  </si>
+  <si>
+    <t>C08J11/22</t>
+  </si>
+  <si>
+    <t>C08J11/23</t>
+  </si>
+  <si>
+    <t>C08J11/24</t>
+  </si>
+  <si>
+    <t>C08J11/25</t>
+  </si>
+  <si>
+    <t>C08J11/26</t>
+  </si>
+  <si>
+    <t>C08J11/27</t>
+  </si>
+  <si>
+    <t>C08J11/28</t>
+  </si>
+  <si>
+    <t>C09K11/01</t>
+  </si>
+  <si>
+    <t>C11B11/00</t>
+  </si>
+  <si>
+    <t>C11B13/00</t>
+  </si>
+  <si>
+    <t>C11B13/01</t>
+  </si>
+  <si>
+    <t>C11B13/02</t>
+  </si>
+  <si>
+    <t>C11B13/03</t>
+  </si>
+  <si>
+    <t>C11B13/04</t>
+  </si>
+  <si>
+    <t>C14C3/32</t>
+  </si>
+  <si>
+    <t>C21B3/04</t>
+  </si>
+  <si>
+    <t>C25C1/00</t>
+  </si>
+  <si>
+    <t>D01F13/00</t>
+  </si>
+  <si>
+    <t>D01F13/01</t>
+  </si>
+  <si>
+    <t>D01F13/02</t>
+  </si>
+  <si>
+    <t>D01F13/03</t>
+  </si>
+  <si>
+    <t>D01F13/04</t>
+  </si>
+  <si>
+    <t>B29B17/00</t>
+  </si>
+  <si>
+    <t>B62D67/00</t>
+  </si>
+  <si>
+    <t>C10G1/10</t>
+  </si>
+  <si>
+    <t>C22B7/00</t>
+  </si>
+  <si>
+    <t>C22B7/01</t>
+  </si>
+  <si>
+    <t>C22B7/02</t>
+  </si>
+  <si>
+    <t>C22B7/03</t>
+  </si>
+  <si>
+    <t>C22B7/04</t>
+  </si>
+  <si>
+    <t>C22B19/30</t>
+  </si>
+  <si>
+    <t>C22B25/06</t>
+  </si>
+  <si>
+    <t>D01G11/00</t>
+  </si>
+  <si>
+    <t>D21C5/02</t>
+  </si>
+  <si>
+    <t>H01J9/50</t>
+  </si>
+  <si>
+    <t>H01J9/52</t>
+  </si>
+  <si>
+    <t>H01M6/52</t>
+  </si>
+  <si>
+    <t>H01M10/54</t>
+  </si>
+  <si>
+    <t>B01D53/62</t>
+  </si>
+  <si>
+    <t>B65G5/00</t>
+  </si>
+  <si>
+    <t>C01B31/20</t>
+  </si>
+  <si>
+    <t>E21B41/00</t>
+  </si>
+  <si>
+    <t>E21B43/16</t>
+  </si>
+  <si>
+    <t>E21F17/16</t>
+  </si>
+  <si>
+    <t>F25J3/02</t>
+  </si>
+  <si>
+    <t>B01D53/00</t>
+  </si>
+  <si>
+    <t>B01D53/01</t>
+  </si>
+  <si>
+    <t>B01D53/03</t>
+  </si>
+  <si>
+    <t>B01D53/05</t>
+  </si>
+  <si>
+    <t>B01D53/06</t>
+  </si>
+  <si>
+    <t>B01D53/07</t>
+  </si>
+  <si>
+    <t>B01D53/08</t>
+  </si>
+  <si>
+    <t>B01D53/09</t>
+  </si>
+  <si>
+    <t>B01D53/10</t>
+  </si>
+  <si>
+    <t>B01D53/11</t>
+  </si>
+  <si>
+    <t>B01D53/12</t>
+  </si>
+  <si>
+    <t>B01D53/13</t>
+  </si>
+  <si>
+    <t>B01D53/15</t>
+  </si>
+  <si>
+    <t>B01D53/16</t>
+  </si>
+  <si>
+    <t>B01D53/17</t>
+  </si>
+  <si>
+    <t>B01D53/18</t>
+  </si>
+  <si>
+    <t>B01D53/19</t>
+  </si>
+  <si>
+    <t>B01D53/20</t>
+  </si>
+  <si>
+    <t>B01D53/21</t>
+  </si>
+  <si>
+    <t>B01D53/23</t>
+  </si>
+  <si>
+    <t>B01D53/25</t>
+  </si>
+  <si>
+    <t>B01D53/26</t>
+  </si>
+  <si>
+    <t>B01D53/27</t>
+  </si>
+  <si>
+    <t>B01D53/28</t>
+  </si>
+  <si>
+    <t>B01D53/29</t>
+  </si>
+  <si>
+    <t>B01D53/30</t>
+  </si>
+  <si>
+    <t>B01D53/31</t>
+  </si>
+  <si>
+    <t>B01D53/32</t>
+  </si>
+  <si>
+    <t>B01D53/33</t>
+  </si>
+  <si>
+    <t>B01D53/34</t>
+  </si>
+  <si>
+    <t>B01D53/35</t>
+  </si>
+  <si>
+    <t>B01D53/36</t>
+  </si>
+  <si>
+    <t>B01D53/37</t>
+  </si>
+  <si>
+    <t>B01D53/38</t>
+  </si>
+  <si>
+    <t>B01D53/39</t>
+  </si>
+  <si>
+    <t>B01D53/40</t>
+  </si>
+  <si>
+    <t>B01D53/41</t>
+  </si>
+  <si>
+    <t>B01D53/42</t>
+  </si>
+  <si>
+    <t>B01D53/43</t>
+  </si>
+  <si>
+    <t>B01D53/44</t>
+  </si>
+  <si>
+    <t>B01D53/45</t>
+  </si>
+  <si>
+    <t>B01D53/46</t>
+  </si>
+  <si>
+    <t>B01D53/47</t>
+  </si>
+  <si>
+    <t>B01D53/48</t>
+  </si>
+  <si>
+    <t>B01D53/49</t>
+  </si>
+  <si>
+    <t>B01D53/50</t>
+  </si>
+  <si>
+    <t>B01D53/51</t>
+  </si>
+  <si>
+    <t>B01D53/52</t>
+  </si>
+  <si>
+    <t>B01D53/53</t>
+  </si>
+  <si>
+    <t>B01D53/54</t>
+  </si>
+  <si>
+    <t>B01D53/55</t>
+  </si>
+  <si>
+    <t>B01D53/56</t>
+  </si>
+  <si>
+    <t>B01D53/57</t>
+  </si>
+  <si>
+    <t>B01D53/58</t>
+  </si>
+  <si>
+    <t>B01D53/59</t>
+  </si>
+  <si>
+    <t>B01D53/60</t>
+  </si>
+  <si>
+    <t>B01D53/61</t>
+  </si>
+  <si>
+    <t>B01D53/63</t>
+  </si>
+  <si>
+    <t>B01D53/64</t>
+  </si>
+  <si>
+    <t>B01D53/65</t>
+  </si>
+  <si>
+    <t>B01D53/66</t>
+  </si>
+  <si>
+    <t>B01D53/67</t>
+  </si>
+  <si>
+    <t>B01D53/68</t>
+  </si>
+  <si>
+    <t>B01D53/69</t>
+  </si>
+  <si>
+    <t>B01D53/70</t>
+  </si>
+  <si>
+    <t>B01D53/71</t>
+  </si>
+  <si>
+    <t>B01D53/72</t>
+  </si>
+  <si>
+    <t>B01D53/73</t>
+  </si>
+  <si>
+    <t>B01D53/74</t>
+  </si>
+  <si>
+    <t>B01D53/75</t>
+  </si>
+  <si>
+    <t>B01D53/76</t>
+  </si>
+  <si>
+    <t>B01D53/77</t>
+  </si>
+  <si>
+    <t>B01D53/78</t>
+  </si>
+  <si>
+    <t>B01D53/79</t>
+  </si>
+  <si>
+    <t>B01D53/80</t>
+  </si>
+  <si>
+    <t>B01D53/81</t>
+  </si>
+  <si>
+    <t>B01D53/82</t>
+  </si>
+  <si>
+    <t>B01D53/83</t>
+  </si>
+  <si>
+    <t>B01D53/84</t>
+  </si>
+  <si>
+    <t>B01D53/85</t>
+  </si>
+  <si>
+    <t>B01D53/86</t>
+  </si>
+  <si>
+    <t>B01D53/87</t>
+  </si>
+  <si>
+    <t>B01D53/88</t>
+  </si>
+  <si>
+    <t>B01D53/89</t>
+  </si>
+  <si>
+    <t>B01D53/90</t>
+  </si>
+  <si>
+    <t>B01D53/91</t>
+  </si>
+  <si>
+    <t>B01D53/92</t>
+  </si>
+  <si>
+    <t>B01D53/93</t>
+  </si>
+  <si>
+    <t>B01D53/94</t>
+  </si>
+  <si>
+    <t>B01D53/95</t>
+  </si>
+  <si>
+    <t>B01D53/96</t>
+  </si>
+  <si>
+    <t>F01N3/00</t>
+  </si>
+  <si>
+    <t>F01N3/01</t>
+  </si>
+  <si>
+    <t>F01N3/02</t>
+  </si>
+  <si>
+    <t>F01N3/03</t>
+  </si>
+  <si>
+    <t>F01N3/04</t>
+  </si>
+  <si>
+    <t>F01N3/05</t>
+  </si>
+  <si>
+    <t>F01N3/06</t>
+  </si>
+  <si>
+    <t>F01N3/07</t>
+  </si>
+  <si>
+    <t>F01N3/08</t>
+  </si>
+  <si>
+    <t>F01N3/09</t>
+  </si>
+  <si>
+    <t>F01N3/10</t>
+  </si>
+  <si>
+    <t>F01N3/11</t>
+  </si>
+  <si>
+    <t>F01N3/12</t>
+  </si>
+  <si>
+    <t>F01N3/13</t>
+  </si>
+  <si>
+    <t>F01N3/14</t>
+  </si>
+  <si>
+    <t>F01N3/15</t>
+  </si>
+  <si>
+    <t>F01N3/16</t>
+  </si>
+  <si>
+    <t>F01N3/17</t>
+  </si>
+  <si>
+    <t>F01N3/18</t>
+  </si>
+  <si>
+    <t>F01N3/19</t>
+  </si>
+  <si>
+    <t>F01N3/20</t>
+  </si>
+  <si>
+    <t>F01N3/21</t>
+  </si>
+  <si>
+    <t>F01N3/22</t>
+  </si>
+  <si>
+    <t>F01N3/23</t>
+  </si>
+  <si>
+    <t>F01N3/24</t>
+  </si>
+  <si>
+    <t>F01N3/25</t>
+  </si>
+  <si>
+    <t>F01N3/26</t>
+  </si>
+  <si>
+    <t>F01N3/27</t>
+  </si>
+  <si>
+    <t>F01N3/28</t>
+  </si>
+  <si>
+    <t>F01N3/29</t>
+  </si>
+  <si>
+    <t>F01N3/30</t>
+  </si>
+  <si>
+    <t>F01N3/31</t>
+  </si>
+  <si>
+    <t>F01N3/32</t>
+  </si>
+  <si>
+    <t>F01N3/33</t>
+  </si>
+  <si>
+    <t>F01N3/34</t>
+  </si>
+  <si>
+    <t>F01N3/35</t>
+  </si>
+  <si>
+    <t>F01N3/36</t>
+  </si>
+  <si>
+    <t>F01N3/37</t>
+  </si>
+  <si>
+    <t>F01N3/38</t>
+  </si>
+  <si>
+    <t>F02B75/10</t>
+  </si>
+  <si>
+    <t>C21C5/38</t>
+  </si>
+  <si>
+    <t>C10B21/18</t>
+  </si>
+  <si>
+    <t>F23B80/02</t>
+  </si>
+  <si>
+    <t>F23C9/00</t>
+  </si>
+  <si>
+    <t>F23G7/06</t>
+  </si>
+  <si>
+    <t>F01N9/00</t>
+  </si>
+  <si>
+    <t>B01D45/00</t>
+  </si>
+  <si>
+    <t>B03C3/00</t>
+  </si>
+  <si>
+    <t>C21B7/22</t>
+  </si>
+  <si>
+    <t>F27B1/18</t>
+  </si>
+  <si>
+    <t>F27B15/12</t>
+  </si>
+  <si>
+    <t>C10L10/02</t>
+  </si>
+  <si>
+    <t>C10L10/06</t>
+  </si>
+  <si>
+    <t>F23J7/00</t>
+  </si>
+  <si>
+    <t>F23J15/00</t>
+  </si>
+  <si>
+    <t>C09K3/22</t>
+  </si>
+  <si>
+    <t>G08B21/12</t>
+  </si>
+  <si>
+    <t>B63J4/00</t>
   </si>
   <si>
     <t>C02F</t>
   </si>
   <si>
-    <t>C05F 7/00</t>
-  </si>
-  <si>
-    <t>C09K 3/32</t>
-  </si>
-  <si>
-    <t>B63B 35/32</t>
-  </si>
-  <si>
-    <t>E02B 15/04</t>
-  </si>
-  <si>
-    <t>E03C 1/12</t>
-  </si>
-  <si>
-    <t>C02F 1/00</t>
-  </si>
-  <si>
-    <t>C02F 3/00</t>
-  </si>
-  <si>
-    <t>C02F 9/00</t>
+    <t>C05F7/00</t>
+  </si>
+  <si>
+    <t>C09K3/32</t>
+  </si>
+  <si>
+    <t>B63B35/32</t>
+  </si>
+  <si>
+    <t>E02B15/04</t>
+  </si>
+  <si>
+    <t>E03C1/12</t>
+  </si>
+  <si>
+    <t>C02F1/00</t>
+  </si>
+  <si>
+    <t>C02F3/00</t>
+  </si>
+  <si>
+    <t>C02F9/00</t>
   </si>
   <si>
     <t>E03F</t>
   </si>
   <si>
-    <t>G21C 13/10</t>
-  </si>
-  <si>
-    <t>A01G 23/00</t>
-  </si>
-  <si>
-    <t>A01G 25/00</t>
-  </si>
-  <si>
-    <t>A01N 25/00</t>
-  </si>
-  <si>
-    <t>C09K 17/00</t>
-  </si>
-  <si>
-    <t>E02D 3/00</t>
+    <t>G21C13/10</t>
+  </si>
+  <si>
+    <t>A01G23/00</t>
+  </si>
+  <si>
+    <t>A01G25/00</t>
+  </si>
+  <si>
+    <t>A01N25/00</t>
+  </si>
+  <si>
+    <t>C09K17/00</t>
+  </si>
+  <si>
+    <t>E02D3/00</t>
   </si>
   <si>
     <t>G06Q</t>
@@ -2878,7 +2878,7 @@
     <t>G08G</t>
   </si>
   <si>
-    <t>E04H 1/00</t>
+    <t>E04H1/00</t>
   </si>
   <si>
     <t>G21</t>
